--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB2DFC9-AA5C-4224-8484-EA28CDE38698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA081C-AE7E-4A42-AEBF-B95C74CADA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -48,9 +48,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>基础</t>
-  </si>
-  <si>
     <t>造成6点伤害</t>
   </si>
   <si>
@@ -269,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成2点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成3点伤害，获得2点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力涌动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +275,34 @@
   </si>
   <si>
     <t>打出日记最近被记录的2张牌。可被多次升级。这张卡牌无法被记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一张沙耶出击到手牌中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,13 +362,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,18 +657,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -659,42 +676,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +728,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -736,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -755,19 +772,19 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -775,219 +792,245 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>54</v>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>50</v>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>66</v>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>68</v>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>57</v>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>59</v>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1026,24 +1069,24 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA081C-AE7E-4A42-AEBF-B95C74CADA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA86C38-C3C7-417F-A80C-6606AAA514FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="关键字" sheetId="2" r:id="rId1"/>
-    <sheet name="卡牌" sheetId="1" r:id="rId2"/>
+    <sheet name="关键字" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌" sheetId="2" r:id="rId2"/>
     <sheet name="遗物" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -67,250 +67,489 @@
   </si>
   <si>
     <t>记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌将会被记录到日记中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>速记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打出后立即记录到日记中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瞬发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回合开始时，如果结语有瞬发效果，则将其打出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>再现魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>追忆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡，选择日记里的一张牌，使其移动为结语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，选择日记里的一张牌，使其移动为结语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妮可冒险记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>翻找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取一张卡牌。速记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取两张卡牌。速记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>崩坏魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>失去当前的结语，对全体敌人造成15点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>失去当前的结语，对全体敌人造成12点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔女长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将卡牌添加到日记中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本我形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回合结束时，记录所有的手牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沙耶之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沙耶出击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>费用变为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>再现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>将日记中的卡牌获取到手牌中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成9点伤害，再现结语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成11点伤害，再现结语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>费用变为2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贴贴形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>猫形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。虚无。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔女之旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回合开始时，瞬发会发动两次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔力涌动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。这张卡牌无法被记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出日记最近被记录的2张牌。可被多次升级。这张卡牌无法被记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每回合增加一张沙耶出击到手牌中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魅力魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美的我</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>日记</t>
+  </si>
+  <si>
+    <t>日记/魔法</t>
+  </si>
+  <si>
+    <t>日记/沙耶</t>
+  </si>
+  <si>
+    <t>沙耶</t>
+  </si>
+  <si>
+    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
+  </si>
+  <si>
+    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
+  </si>
+  <si>
+    <t>没错，就是我</t>
+  </si>
+  <si>
+    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*2。</t>
+  </si>
+  <si>
+    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*3。</t>
+  </si>
+  <si>
+    <t>挑衅</t>
+  </si>
+  <si>
+    <t>反制魔法</t>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+  </si>
+  <si>
+    <t>咦？！</t>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
+  </si>
+  <si>
+    <t>应用敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
+  </si>
+  <si>
+    <t>应用敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
+  </si>
+  <si>
+    <t>时光倒流</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>时令/日记</t>
+  </si>
+  <si>
+    <t>不屑一顾</t>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
+  </si>
+  <si>
+    <t>激化法阵</t>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
+  </si>
+  <si>
+    <t>冰锥魔法</t>
+  </si>
+  <si>
+    <t>造成（冬：18）/（春秋夏：11）点伤害。（夏：消耗）</t>
+  </si>
+  <si>
+    <t>时令/魔法</t>
+  </si>
+  <si>
+    <t>不可被打出</t>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
+  </si>
+  <si>
+    <t>时令</t>
+  </si>
+  <si>
+    <t>一时慵懒</t>
+  </si>
+  <si>
+    <t>安稳结界</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>友谊的见证</t>
+  </si>
+  <si>
+    <t>添置新装</t>
+  </si>
+  <si>
+    <t>相对效应</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将未被消耗的卡牌添加到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取3张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现一张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，再现一张费用最高的卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得30格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得40格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进3。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令·XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：15）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -347,15 +586,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -364,10 +603,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -644,24 +889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="66.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -678,68 +923,86 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="39" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -761,8 +1024,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -773,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -781,8 +1047,11 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -793,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -801,240 +1070,771 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
+      <c r="E11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1043,11 +1843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
@@ -1069,28 +1869,28 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA86C38-C3C7-417F-A80C-6606AAA514FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28DE88-4921-4BCD-A8C6-B0E221D31DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
   <si>
     <t>序号</t>
   </si>
@@ -99,440 +99,460 @@
     <t>追忆</t>
   </si>
   <si>
+    <t>翻找</t>
+  </si>
+  <si>
+    <t>崩坏魔法</t>
+  </si>
+  <si>
+    <t>失去当前的结语，对全体敌人造成15点伤害</t>
+  </si>
+  <si>
+    <t>失去当前的结语，对全体敌人造成12点伤害</t>
+  </si>
+  <si>
+    <t>魔女长袍</t>
+  </si>
+  <si>
+    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+  </si>
+  <si>
+    <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+  </si>
+  <si>
+    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
+  </si>
+  <si>
+    <t>本我形态</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>回合结束时，记录所有的手牌。</t>
+  </si>
+  <si>
+    <t>沙耶之歌</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
+  </si>
+  <si>
+    <t>沙耶出击</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+  </si>
+  <si>
+    <t>再现</t>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中。</t>
+  </si>
+  <si>
+    <t>造成9点伤害，再现结语。</t>
+  </si>
+  <si>
+    <t>造成11点伤害，再现结语。</t>
+  </si>
+  <si>
+    <t>战斗形态</t>
+  </si>
+  <si>
+    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
+  </si>
+  <si>
+    <t>费用变为2。</t>
+  </si>
+  <si>
+    <t>贴贴形态</t>
+  </si>
+  <si>
+    <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
+  </si>
+  <si>
+    <t>猫形态</t>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。虚无。</t>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
+  </si>
+  <si>
+    <t>回合开始时，瞬发会发动两次。</t>
+  </si>
+  <si>
+    <t>魔力涌动</t>
+  </si>
+  <si>
+    <t>每回合增加一张沙耶出击到手牌中。</t>
+  </si>
+  <si>
+    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+  </si>
+  <si>
+    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+  </si>
+  <si>
+    <t>魅力魔法</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
+  </si>
+  <si>
+    <t>完美的我</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>日记</t>
+  </si>
+  <si>
+    <t>日记/魔法</t>
+  </si>
+  <si>
+    <t>日记/沙耶</t>
+  </si>
+  <si>
+    <t>沙耶</t>
+  </si>
+  <si>
+    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
+  </si>
+  <si>
+    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
+  </si>
+  <si>
+    <t>没错，就是我</t>
+  </si>
+  <si>
+    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*2。</t>
+  </si>
+  <si>
+    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*3。</t>
+  </si>
+  <si>
+    <t>挑衅</t>
+  </si>
+  <si>
+    <t>反制魔法</t>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+  </si>
+  <si>
+    <t>咦？！</t>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
+  </si>
+  <si>
+    <t>时光倒流</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>时令/日记</t>
+  </si>
+  <si>
+    <t>不屑一顾</t>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
+  </si>
+  <si>
+    <t>激化法阵</t>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
+  </si>
+  <si>
+    <t>冰锥魔法</t>
+  </si>
+  <si>
+    <t>造成（冬：18）/（春秋夏：11）点伤害。（夏：消耗）</t>
+  </si>
+  <si>
+    <t>时令/魔法</t>
+  </si>
+  <si>
+    <t>不可被打出</t>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
+  </si>
+  <si>
+    <t>时令</t>
+  </si>
+  <si>
+    <t>一时慵懒</t>
+  </si>
+  <si>
+    <t>安稳结界</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>友谊的见证</t>
+  </si>
+  <si>
+    <t>添置新装</t>
+  </si>
+  <si>
+    <t>相对效应</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将未被消耗的卡牌添加到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取3张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现一张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，再现一张费用最高的卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得30格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得40格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进3。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令·XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：15）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女之旅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>妮可冒险记</t>
-  </si>
-  <si>
-    <t>翻找</t>
-  </si>
-  <si>
-    <t>崩坏魔法</t>
-  </si>
-  <si>
-    <t>失去当前的结语，对全体敌人造成15点伤害</t>
-  </si>
-  <si>
-    <t>失去当前的结语，对全体敌人造成12点伤害</t>
-  </si>
-  <si>
-    <t>魔女长袍</t>
-  </si>
-  <si>
-    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-  </si>
-  <si>
-    <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-  </si>
-  <si>
-    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
-  </si>
-  <si>
-    <t>本我形态</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>回合结束时，记录所有的手牌。</t>
-  </si>
-  <si>
-    <t>沙耶之歌</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
-  </si>
-  <si>
-    <t>沙耶出击</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-  </si>
-  <si>
-    <t>再现</t>
-  </si>
-  <si>
-    <t>将日记中的卡牌获取到手牌中。</t>
-  </si>
-  <si>
-    <t>造成9点伤害，再现结语。</t>
-  </si>
-  <si>
-    <t>造成11点伤害，再现结语。</t>
-  </si>
-  <si>
-    <t>战斗形态</t>
-  </si>
-  <si>
-    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
-  </si>
-  <si>
-    <t>费用变为2。</t>
-  </si>
-  <si>
-    <t>贴贴形态</t>
-  </si>
-  <si>
-    <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
-  </si>
-  <si>
-    <t>猫形态</t>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。虚无。</t>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
-  </si>
-  <si>
-    <t>魔女之旅</t>
-  </si>
-  <si>
-    <t>回合开始时，瞬发会发动两次。</t>
-  </si>
-  <si>
-    <t>魔力涌动</t>
-  </si>
-  <si>
-    <t>每回合增加一张沙耶出击到手牌中。</t>
-  </si>
-  <si>
-    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-  </si>
-  <si>
-    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-  </si>
-  <si>
-    <t>魅力魔法</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-  </si>
-  <si>
-    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-  </si>
-  <si>
-    <t>完美的我</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
-  </si>
-  <si>
-    <t>机制</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>日记</t>
-  </si>
-  <si>
-    <t>日记/魔法</t>
-  </si>
-  <si>
-    <t>日记/沙耶</t>
-  </si>
-  <si>
-    <t>沙耶</t>
-  </si>
-  <si>
-    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
-  </si>
-  <si>
-    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
-  </si>
-  <si>
-    <t>没错，就是我</t>
-  </si>
-  <si>
-    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*2。</t>
-  </si>
-  <si>
-    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*3。</t>
-  </si>
-  <si>
-    <t>挑衅</t>
-  </si>
-  <si>
-    <t>反制魔法</t>
-  </si>
-  <si>
-    <t>挑衅/魔法</t>
-  </si>
-  <si>
-    <t>咦？！</t>
-  </si>
-  <si>
-    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
-  </si>
-  <si>
-    <t>应用敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
-  </si>
-  <si>
-    <t>应用敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
-  </si>
-  <si>
-    <t>时光倒流</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>时令/日记</t>
-  </si>
-  <si>
-    <t>不屑一顾</t>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
-  </si>
-  <si>
-    <t>激化法阵</t>
-  </si>
-  <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
-  </si>
-  <si>
-    <t>冰锥魔法</t>
-  </si>
-  <si>
-    <t>造成（冬：18）/（春秋夏：11）点伤害。（夏：消耗）</t>
-  </si>
-  <si>
-    <t>时令/魔法</t>
-  </si>
-  <si>
-    <t>不可被打出</t>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
-  </si>
-  <si>
-    <t>时令</t>
-  </si>
-  <si>
-    <t>一时慵懒</t>
-  </si>
-  <si>
-    <t>安稳结界</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>友谊的见证</t>
-  </si>
-  <si>
-    <t>添置新装</t>
-  </si>
-  <si>
-    <t>相对效应</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
-    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
-    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将未被消耗的卡牌添加到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取2张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取3张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>思索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰击魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现一张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，再现一张费用最高的卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得30格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得40格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进2。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进3。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令·XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（冬：15）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女胸饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -903,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -924,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,26 +973,26 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -988,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1048,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1062,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1071,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,16 +1105,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1108,729 +1128,729 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1868,25 +1888,36 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>25</v>
+      <c r="B2" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>56</v>
+      <c r="B3" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28DE88-4921-4BCD-A8C6-B0E221D31DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1AAC7-775C-4E46-897A-0FF96ED86BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -72,487 +72,515 @@
     <t>速记</t>
   </si>
   <si>
+    <t>瞬发</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>结语</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>追忆</t>
+  </si>
+  <si>
+    <t>翻找</t>
+  </si>
+  <si>
+    <t>崩坏魔法</t>
+  </si>
+  <si>
+    <t>失去当前的结语，对全体敌人造成15点伤害</t>
+  </si>
+  <si>
+    <t>失去当前的结语，对全体敌人造成12点伤害</t>
+  </si>
+  <si>
+    <t>魔女长袍</t>
+  </si>
+  <si>
+    <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+  </si>
+  <si>
+    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
+  </si>
+  <si>
+    <t>本我形态</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>回合结束时，记录所有的手牌。</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+  </si>
+  <si>
+    <t>再现</t>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中。</t>
+  </si>
+  <si>
+    <t>造成9点伤害，再现结语。</t>
+  </si>
+  <si>
+    <t>造成11点伤害，再现结语。</t>
+  </si>
+  <si>
+    <t>战斗形态</t>
+  </si>
+  <si>
+    <t>费用变为2。</t>
+  </si>
+  <si>
+    <t>贴贴形态</t>
+  </si>
+  <si>
+    <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
+  </si>
+  <si>
+    <t>猫形态</t>
+  </si>
+  <si>
+    <t>回合开始时，瞬发会发动两次。</t>
+  </si>
+  <si>
+    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
+  </si>
+  <si>
+    <t>完美的我</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>日记</t>
+  </si>
+  <si>
+    <t>日记/魔法</t>
+  </si>
+  <si>
+    <t>日记/沙耶</t>
+  </si>
+  <si>
+    <t>沙耶</t>
+  </si>
+  <si>
+    <t>没错，就是我</t>
+  </si>
+  <si>
+    <t>挑衅</t>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+  </si>
+  <si>
+    <t>咦？！</t>
+  </si>
+  <si>
+    <t>时光倒流</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>时令/日记</t>
+  </si>
+  <si>
+    <t>不屑一顾</t>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
+  </si>
+  <si>
+    <t>激化法阵</t>
+  </si>
+  <si>
+    <t>造成（冬：18）/（春秋夏：11）点伤害。（夏：消耗）</t>
+  </si>
+  <si>
+    <t>时令/魔法</t>
+  </si>
+  <si>
+    <t>不可被打出</t>
+  </si>
+  <si>
+    <t>时令</t>
+  </si>
+  <si>
+    <t>一时慵懒</t>
+  </si>
+  <si>
+    <t>安稳结界</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>友谊的见证</t>
+  </si>
+  <si>
+    <t>添置新装</t>
+  </si>
+  <si>
+    <t>相对效应</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将未被消耗的卡牌添加到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取3张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得30格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得40格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进3。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令·XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：15）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女之旅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮可冒险记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女胸饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>打出后立即记录到日记中</t>
-  </si>
-  <si>
-    <t>瞬发</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>结语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
-  </si>
-  <si>
-    <t>回合开始时，如果结语有瞬发效果，则将其打出</t>
-  </si>
-  <si>
-    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶之歌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶出击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>再现魔法</t>
-  </si>
-  <si>
-    <t>追忆</t>
-  </si>
-  <si>
-    <t>翻找</t>
-  </si>
-  <si>
-    <t>崩坏魔法</t>
-  </si>
-  <si>
-    <t>失去当前的结语，对全体敌人造成15点伤害</t>
-  </si>
-  <si>
-    <t>失去当前的结语，对全体敌人造成12点伤害</t>
-  </si>
-  <si>
-    <t>魔女长袍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力涌动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反制魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一张沙耶出击到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*2。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*3。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-  </si>
-  <si>
-    <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-  </si>
-  <si>
-    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
-  </si>
-  <si>
-    <t>本我形态</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>回合结束时，记录所有的手牌。</t>
-  </si>
-  <si>
-    <t>沙耶之歌</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
-  </si>
-  <si>
-    <t>沙耶出击</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-  </si>
-  <si>
-    <t>再现</t>
-  </si>
-  <si>
-    <t>将日记中的卡牌获取到手牌中。</t>
-  </si>
-  <si>
-    <t>造成9点伤害，再现结语。</t>
-  </si>
-  <si>
-    <t>造成11点伤害，再现结语。</t>
-  </si>
-  <si>
-    <t>战斗形态</t>
-  </si>
-  <si>
-    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
-  </si>
-  <si>
-    <t>费用变为2。</t>
-  </si>
-  <si>
-    <t>贴贴形态</t>
-  </si>
-  <si>
-    <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
-  </si>
-  <si>
-    <t>猫形态</t>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。虚无。</t>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
-  </si>
-  <si>
-    <t>回合开始时，瞬发会发动两次。</t>
-  </si>
-  <si>
-    <t>魔力涌动</t>
-  </si>
-  <si>
-    <t>每回合增加一张沙耶出击到手牌中。</t>
-  </si>
-  <si>
-    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-  </si>
-  <si>
-    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-  </si>
-  <si>
-    <t>魅力魔法</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-  </si>
-  <si>
-    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-  </si>
-  <si>
-    <t>完美的我</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
-  </si>
-  <si>
-    <t>机制</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>日记</t>
-  </si>
-  <si>
-    <t>日记/魔法</t>
-  </si>
-  <si>
-    <t>日记/沙耶</t>
-  </si>
-  <si>
-    <t>沙耶</t>
-  </si>
-  <si>
-    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
-  </si>
-  <si>
-    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
-  </si>
-  <si>
-    <t>没错，就是我</t>
-  </si>
-  <si>
-    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*2。</t>
-  </si>
-  <si>
-    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*3。</t>
-  </si>
-  <si>
-    <t>挑衅</t>
-  </si>
-  <si>
-    <t>反制魔法</t>
-  </si>
-  <si>
-    <t>挑衅/魔法</t>
-  </si>
-  <si>
-    <t>咦？！</t>
-  </si>
-  <si>
-    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
-  </si>
-  <si>
-    <t>时光倒流</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>时令/日记</t>
-  </si>
-  <si>
-    <t>不屑一顾</t>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
-  </si>
-  <si>
-    <t>激化法阵</t>
-  </si>
-  <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
-  </si>
-  <si>
-    <t>冰锥魔法</t>
-  </si>
-  <si>
-    <t>造成（冬：18）/（春秋夏：11）点伤害。（夏：消耗）</t>
-  </si>
-  <si>
-    <t>时令/魔法</t>
-  </si>
-  <si>
-    <t>不可被打出</t>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
-  </si>
-  <si>
-    <t>时令</t>
-  </si>
-  <si>
-    <t>一时慵懒</t>
-  </si>
-  <si>
-    <t>安稳结界</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>友谊的见证</t>
-  </si>
-  <si>
-    <t>添置新装</t>
-  </si>
-  <si>
-    <t>相对效应</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
-    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
-    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将未被消耗的卡牌添加到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取2张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取3张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>思索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰击魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现一张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，再现一张费用最高的卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得30格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得40格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进2。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进3。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令·XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（冬：15）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女之旅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>妮可冒险记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女胸饰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现3张卡牌，使其费用变为0。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +941,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -923,7 +951,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -944,55 +972,55 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
+      <c r="C4" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1008,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1045,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1068,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1091,766 +1119,766 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>60</v>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>56</v>
+      <c r="B15" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>36</v>
+      <c r="B16" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
+      <c r="B17" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>92</v>
+      <c r="B30" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1863,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1889,35 +1917,35 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1AAC7-775C-4E46-897A-0FF96ED86BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93CB8B-FA85-484F-AD5D-D96E29B46DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
   <si>
     <t>序号</t>
   </si>
@@ -96,9 +96,6 @@
     <t>失去当前的结语，对全体敌人造成15点伤害</t>
   </si>
   <si>
-    <t>失去当前的结语，对全体敌人造成12点伤害</t>
-  </si>
-  <si>
     <t>魔女长袍</t>
   </si>
   <si>
@@ -135,15 +132,9 @@
     <t>再现</t>
   </si>
   <si>
-    <t>将日记中的卡牌获取到手牌中。</t>
-  </si>
-  <si>
     <t>造成9点伤害，再现结语。</t>
   </si>
   <si>
-    <t>造成11点伤害，再现结语。</t>
-  </si>
-  <si>
     <t>战斗形态</t>
   </si>
   <si>
@@ -216,18 +207,12 @@
     <t>时令/日记</t>
   </si>
   <si>
-    <t>不屑一顾</t>
-  </si>
-  <si>
     <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
   </si>
   <si>
     <t>激化法阵</t>
   </si>
   <si>
-    <t>造成（冬：18）/（春秋夏：11）点伤害。（夏：消耗）</t>
-  </si>
-  <si>
     <t>时令/魔法</t>
   </si>
   <si>
@@ -246,341 +231,438 @@
     <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
   </si>
   <si>
+    <t>添置新装</t>
+  </si>
+  <si>
+    <t>相对效应</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将未被消耗的卡牌添加到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取3张卡牌。速记。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进3。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令·XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女之旅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮可冒险记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女胸饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出后立即记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶出击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力涌动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反制魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一张沙耶出击到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现3张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/魔法/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用小于等于上回合失去结语的费用。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，对全体敌人造成12点伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶装的幸福</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无民国壁炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有时令牌只会以最佳效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟摆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节不再回退。点击后时节前进2。（剩余次数3）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退1，抽3张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退1，抽4张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶追踪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中，使其获得“虚无”和“消耗”。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：18）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：22）/（春秋夏：11）点伤害。（夏：消耗）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得30格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不灭烙印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记。作为结语时，记录卡牌改为获得7点格挡，随机造成7点伤害，失去结语改为受到7点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌，使所有敌人获得等同于被记录卡牌费用的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>友谊的见证</t>
-  </si>
-  <si>
-    <t>添置新装</t>
-  </si>
-  <si>
-    <t>相对效应</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
-    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将未被消耗的卡牌添加到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取2张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取3张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>思索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰击魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得30格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得40格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进2。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进3。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令·XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（冬：15）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女之旅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>妮可冒险记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女胸饰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出后立即记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶之歌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶出击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力涌动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反制魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加一张沙耶出击到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。虚无。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*2。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变所有敌人的意图，使所有敌人获得1点力量。获得能量*3。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现3张卡牌，使其费用变为0。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +1023,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -951,7 +1033,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -972,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,31 +1078,31 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1045,12 +1127,12 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,10 +1155,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1096,10 +1181,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1119,12 +1207,15 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1133,19 +1224,22 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1153,436 +1247,425 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1590,24 +1673,24 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -1619,266 +1702,361 @@
         <v>47</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1917,35 +2095,57 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93CB8B-FA85-484F-AD5D-D96E29B46DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FD425-6F6C-406C-87FC-FAD8E347CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
   <si>
     <t>序号</t>
   </si>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使所有敌人获得1点力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -630,10 +626,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不灭烙印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -663,6 +655,18 @@
   </si>
   <si>
     <t>友谊的见证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不灭印记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得2点力量。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -1118,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1188,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1210,7 +1214,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,13 +1234,13 @@
         <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1253,16 +1257,16 @@
         <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1288,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1328,7 +1332,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
@@ -1337,7 +1341,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1354,7 +1358,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>25</v>
@@ -1423,10 +1427,10 @@
         <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>86</v>
@@ -1503,7 +1507,7 @@
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -1524,7 +1528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>124</v>
       </c>
@@ -1549,7 +1553,7 @@
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>91</v>
@@ -1561,16 +1565,16 @@
         <v>79</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>86</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1610,10 +1614,10 @@
         <v>110</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>60</v>
@@ -1633,13 +1637,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1690,7 +1694,7 @@
     </row>
     <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -1702,7 +1706,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>61</v>
@@ -1725,7 +1729,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>34</v>
@@ -1759,7 +1763,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>83</v>
@@ -1771,10 +1775,10 @@
         <v>79</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>75</v>
@@ -1782,7 +1786,7 @@
     </row>
     <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>99</v>
@@ -1794,13 +1798,16 @@
         <v>79</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>86</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1817,13 +1824,16 @@
         <v>44</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
@@ -1843,7 +1853,7 @@
         <v>107</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>65</v>
@@ -1863,10 +1873,10 @@
         <v>33</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>65</v>
@@ -1894,13 +1904,11 @@
       <c r="H33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -1919,6 +1927,9 @@
       </c>
       <c r="H34" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -1958,13 +1969,16 @@
         <v>33</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1987,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -2010,7 +2024,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -2033,7 +2047,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -2050,18 +2064,19 @@
         <v>47</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2128,24 +2143,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FD425-6F6C-406C-87FC-FAD8E347CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6041F-54B2-49E3-AB2F-1FD5D3E83218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="180">
   <si>
     <t>序号</t>
   </si>
@@ -99,574 +99,575 @@
     <t>魔女长袍</t>
   </si>
   <si>
+    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
+  </si>
+  <si>
+    <t>本我形态</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>回合结束时，记录所有的手牌。</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+  </si>
+  <si>
+    <t>再现</t>
+  </si>
+  <si>
+    <t>造成9点伤害，再现结语。</t>
+  </si>
+  <si>
+    <t>战斗形态</t>
+  </si>
+  <si>
+    <t>费用变为2。</t>
+  </si>
+  <si>
+    <t>贴贴形态</t>
+  </si>
+  <si>
+    <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
+  </si>
+  <si>
+    <t>猫形态</t>
+  </si>
+  <si>
+    <t>回合开始时，瞬发会发动两次。</t>
+  </si>
+  <si>
+    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
+  </si>
+  <si>
+    <t>完美的我</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>日记</t>
+  </si>
+  <si>
+    <t>日记/魔法</t>
+  </si>
+  <si>
+    <t>日记/沙耶</t>
+  </si>
+  <si>
+    <t>沙耶</t>
+  </si>
+  <si>
+    <t>没错，就是我</t>
+  </si>
+  <si>
+    <t>挑衅</t>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+  </si>
+  <si>
+    <t>咦？！</t>
+  </si>
+  <si>
+    <t>时光倒流</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>时令/日记</t>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
+  </si>
+  <si>
+    <t>激化法阵</t>
+  </si>
+  <si>
+    <t>时令/魔法</t>
+  </si>
+  <si>
+    <t>不可被打出</t>
+  </si>
+  <si>
+    <t>时令</t>
+  </si>
+  <si>
+    <t>一时慵懒</t>
+  </si>
+  <si>
+    <t>安稳结界</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>添置新装</t>
+  </si>
+  <si>
+    <t>相对效应</t>
+  </si>
+  <si>
+    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+  </si>
+  <si>
+    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将未被消耗的卡牌添加到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加一张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进3。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令·XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女之旅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮可冒险记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女胸饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出后立即记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶出击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力涌动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反制魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一张沙耶出击到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X回合，回合开始时，时节回退1，随机再现3张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/魔法/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用小于等于上回合失去结语的费用。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，对全体敌人造成12点伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶装的幸福</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无民国壁炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有时令牌只会以最佳效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟摆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节不再回退。点击后时节前进2。（剩余次数3）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退1，抽3张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退1，抽4张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶追踪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中，使其获得“虚无”和“消耗”。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：18）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成（冬：22）/（春秋夏：11）点伤害。（夏：消耗）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得30格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记。作为结语时，记录卡牌改为获得7点格挡，随机造成7点伤害，失去结语改为受到7点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌，使所有敌人获得等同于被记录卡牌费用的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友谊的见证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不灭印记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得2点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-  </si>
-  <si>
-    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
-  </si>
-  <si>
-    <t>本我形态</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>回合结束时，记录所有的手牌。</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>向手牌、抽牌堆、弃牌堆分别添加一张“沙耶出击”</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-  </si>
-  <si>
-    <t>再现</t>
-  </si>
-  <si>
-    <t>造成9点伤害，再现结语。</t>
-  </si>
-  <si>
-    <t>战斗形态</t>
-  </si>
-  <si>
-    <t>费用变为2。</t>
-  </si>
-  <si>
-    <t>贴贴形态</t>
-  </si>
-  <si>
-    <t>升级本场战斗中所有沙耶出击。每回合增加一张沙耶出击到手牌中。</t>
-  </si>
-  <si>
-    <t>猫形态</t>
-  </si>
-  <si>
-    <t>回合开始时，瞬发会发动两次。</t>
-  </si>
-  <si>
-    <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-  </si>
-  <si>
-    <t>完美的我</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>机制</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>日记</t>
-  </si>
-  <si>
-    <t>日记/魔法</t>
-  </si>
-  <si>
-    <t>日记/沙耶</t>
-  </si>
-  <si>
-    <t>沙耶</t>
-  </si>
-  <si>
-    <t>没错，就是我</t>
-  </si>
-  <si>
-    <t>挑衅</t>
-  </si>
-  <si>
-    <t>挑衅/魔法</t>
-  </si>
-  <si>
-    <t>咦？！</t>
-  </si>
-  <si>
-    <t>时光倒流</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>时令/日记</t>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量5倍的生命值。</t>
-  </si>
-  <si>
-    <t>激化法阵</t>
-  </si>
-  <si>
-    <t>时令/魔法</t>
-  </si>
-  <si>
-    <t>不可被打出</t>
-  </si>
-  <si>
-    <t>时令</t>
-  </si>
-  <si>
-    <t>一时慵懒</t>
-  </si>
-  <si>
-    <t>安稳结界</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>添置新装</t>
-  </si>
-  <si>
-    <t>相对效应</t>
-  </si>
-  <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
-    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将未被消耗的卡牌添加到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取2张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取3张卡牌。速记。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>思索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰击魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进2。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进3。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令·XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女之旅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>妮可冒险记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女胸饰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出后立即记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶出击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力涌动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反制魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加一张沙耶出击到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现3张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/形态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/魔法/形态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶/形态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用小于等于上回合失去结语的费用。虚无。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去当前结语，对全体敌人造成12点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶装的幸福</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无民国壁炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有时令牌只会以最佳效果被打出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟摆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节不再回退。点击后时节前进2。（剩余次数3）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退1，抽3张牌。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退1，抽4张牌。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶追踪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将日记中的卡牌获取到手牌中，使其获得“虚无”和“消耗”。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（冬：18）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（冬：22）/（春秋夏：11）点伤害。（夏：消耗）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得20格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得30格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记。作为结语时，记录卡牌改为获得7点格挡，随机造成7点伤害，失去结语改为受到7点伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录1张手牌，使所有敌人获得等同于被记录卡牌费用的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>友谊的见证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不灭印记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得2点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取3张卡牌。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。速记。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1058,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,31 +1083,31 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1122,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1176,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1185,10 +1186,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1202,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1211,15 +1212,15 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -1228,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1254,45 +1255,45 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,22 +1301,22 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1323,25 +1324,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1349,728 +1350,737 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>137</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2110,57 +2120,57 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6041F-54B2-49E3-AB2F-1FD5D3E83218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF4B05-D5C0-4DB8-A4C5-EA7D4F68AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
   <si>
     <t>序号</t>
   </si>
@@ -607,14 +607,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得20格挡。跳过下一个自己的回合。时节前进1。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得30格挡。跳过下一个自己的回合。时节前进2。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -623,10 +615,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>记录1张手牌，使所有敌人获得等同于被记录卡牌费用的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>挑衅/日记</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -668,6 +656,26 @@
   </si>
   <si>
     <t>抽取2张卡牌。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕度（4+19+35+17）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20格挡。跳过下一个自己的回合。时节前进1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得25格挡。跳过下一个自己的回合。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌，使随机敌人获得等同于被记录卡牌费用的力量。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1121,16 +1129,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.109375" style="1" customWidth="1"/>
@@ -1144,8 +1152,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1163,41 +1171,38 @@
         <v>47</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1205,262 +1210,251 @@
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>148</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>20</v>
+      <c r="B5" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>124</v>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
         <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>78</v>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>83</v>
@@ -1468,460 +1462,491 @@
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>80</v>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
+      <c r="E17" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>152</v>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>60</v>
+        <v>176</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>99</v>
+        <v>174</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -1930,24 +1955,21 @@
         <v>32</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1956,134 +1978,126 @@
         <v>32</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>75</v>
+        <v>135</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="I35" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>172</v>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>26</v>
+      <c r="B38" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>144</v>
+        <v>35</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>37</v>
+        <v>140</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>144</v>
+        <v>167</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
+    <sortCondition descending="1" ref="C21:C42"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF4B05-D5C0-4DB8-A4C5-EA7D4F68AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E2543-5DDC-4AB1-A1D3-B284C9E50982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="196">
   <si>
     <t>序号</t>
   </si>
@@ -619,10 +619,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成12点伤害，再现结语。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -676,6 +672,66 @@
   </si>
   <si>
     <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落叶魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：所有敌人失去8点生命）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：所有敌人失去6点生命）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1129,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1171,7 +1227,7 @@
         <v>47</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1243,7 +1299,7 @@
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1283,7 +1339,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>33</v>
@@ -1292,7 +1348,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
@@ -1344,7 +1400,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1365,7 +1421,7 @@
         <v>64</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -1416,145 +1472,148 @@
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>96</v>
@@ -1566,44 +1625,44 @@
         <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="I19" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
@@ -1614,19 +1673,19 @@
       <c r="E20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>123</v>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>27</v>
@@ -1638,18 +1697,18 @@
         <v>46</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>27</v>
@@ -1661,67 +1720,67 @@
         <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="I24" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
@@ -1729,25 +1788,25 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>78</v>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>175</v>
+        <v>118</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1755,74 +1814,77 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>43</v>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>23</v>
+        <v>175</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>83</v>
+      <c r="I28" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>80</v>
@@ -1831,42 +1893,45 @@
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1883,13 +1948,16 @@
         <v>32</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>166</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1938,7 +2006,7 @@
         <v>62</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -1955,10 +2023,10 @@
         <v>32</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>64</v>
@@ -1987,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -2013,7 +2081,7 @@
         <v>48</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -2039,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -2059,13 +2127,13 @@
         <v>35</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -2088,15 +2156,87 @@
         <v>141</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
-    <sortCondition descending="1" ref="C21:C42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
+    <sortCondition descending="1" ref="C21:C40"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E2543-5DDC-4AB1-A1D3-B284C9E50982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782EE71-08DB-4BA4-A56A-5349496EF2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="249">
   <si>
     <t>序号</t>
   </si>
@@ -307,22 +307,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>呼应</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得10点格挡。记录上一张起笔后打出的所有卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得2点格挡。保留。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -699,10 +687,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -732,6 +716,234 @@
   </si>
   <si>
     <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力回响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中临时增加卡牌时会额外增加一张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有。在战斗中临时增加卡牌时会额外增加一张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/沙耶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合开始时，变化所有保留的卡牌。每变化一张，获得能量*1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出魔法卡时，该卡耗能-2。造成20点伤害。斩杀时，再次触发该卡的效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出魔法卡时，该卡耗能-2。造成25点伤害。斩杀时，再次触发该卡的效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整步伐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退4，增加2张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退6，增加3张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进2。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进3。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现日记任意卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无声吟咏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女的锅炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机增加3张有保留效果的卡牌到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术重组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每有1张保留牌，获得5点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每有1张保留牌，获得7点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害。增加2张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成3点伤害。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成5点伤害。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害。增加3张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,23 +1367,23 @@
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1185,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1227,1016 +1439,1298 @@
         <v>47</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>83</v>
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>116</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
+      <c r="C7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>70</v>
+      <c r="F8" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>109</v>
+        <v>146</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>83</v>
+        <v>195</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>121</v>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>137</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>145</v>
+        <v>83</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
+      <c r="B22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
+        <v>190</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>32</v>
+      <c r="E24" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>168</v>
+        <v>192</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>23</v>
+        <v>101</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>173</v>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>78</v>
+      <c r="E29" t="s">
+        <v>32</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
+      <c r="B31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="F39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="40" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="F40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="5" t="s">
+    <row r="41" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="4" t="s">
+    </row>
+    <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>192</v>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
-    <sortCondition descending="1" ref="C21:C40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
+    <sortCondition ref="I1:I42"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,7 +2768,7 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>78</v>
@@ -2285,7 +2779,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2296,35 +2790,35 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782EE71-08DB-4BA4-A56A-5349496EF2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE025B78-58B3-4305-B396-297077819307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="266">
   <si>
     <t>序号</t>
   </si>
@@ -703,247 +703,315 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>闪光魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力回响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中临时增加卡牌时会额外增加一张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有。在战斗中临时增加卡牌时会额外增加一张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/沙耶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合开始时，变化所有保留的卡牌。每变化一张，获得能量*1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出魔法卡时，该卡耗能-2。造成20点伤害。斩杀时，再次触发该卡的效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出魔法卡时，该卡耗能-2。造成25点伤害。斩杀时，再次触发该卡的效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整步伐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退4，增加2张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退6，增加3张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进2。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进3。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现日记任意卡牌。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无声吟咏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女的锅炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机增加3张有保留效果的卡牌到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术重组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每有1张保留牌，获得5点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每有1张保留牌，获得7点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害。增加2张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成3点伤害。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成5点伤害。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害。增加3张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力扩散</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当使用瞬发卡牌时，使随机2张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当使用瞬发卡牌时，使随机3张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力续行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当使用被再现的卡牌时，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深层记忆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打出的被再现卡牌会被打出两次。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为2。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使所有其他敌人的力量加成转移到目标敌人身上。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>挑衅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力回响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在战斗中临时增加卡牌时会额外增加一张。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有。在战斗中临时增加卡牌时会额外增加一张。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留/沙耶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下回合开始时，变化所有保留的卡牌。每变化一张，获得能量*1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出魔法卡时，该卡耗能-2。造成20点伤害。斩杀时，再次触发该卡的效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出魔法卡时，该卡耗能-2。造成25点伤害。斩杀时，再次触发该卡的效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整步伐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退4，增加2张加速到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退6，增加3张加速到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节前进2。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节前进3。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现日记任意卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无声吟咏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女的锅炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机增加3张有保留效果的卡牌到手牌中。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术重组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，每有1张保留牌，获得5点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，每有1张保留牌，获得7点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>震荡魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害。增加2张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成3点伤害。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成5点伤害。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害。增加3张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1397,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1476,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
@@ -1473,7 +1541,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1748,7 +1816,7 @@
         <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>165</v>
@@ -1976,10 +2044,10 @@
         <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>74</v>
@@ -2028,10 +2096,10 @@
         <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>83</v>
@@ -2190,16 +2258,16 @@
         <v>78</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>118</v>
       </c>
@@ -2431,7 +2499,7 @@
     </row>
     <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>184</v>
@@ -2449,283 +2517,375 @@
         <v>187</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="H44" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="H47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="F49" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="H49" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="H51" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H52" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE025B78-58B3-4305-B396-297077819307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E63228-4E3D-4516-BEF9-0F20E1A61A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="272">
   <si>
     <t>序号</t>
   </si>
@@ -1012,6 +1012,30 @@
   </si>
   <si>
     <t>挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡。添加1张应急处理到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点格挡。添加1张应急处理+到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1465,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2104,28 +2128,34 @@
       <c r="H24" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="I24" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>51</v>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -2150,241 +2180,253 @@
       <c r="H26" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="I26" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="32" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30">
+    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
@@ -2395,19 +2437,19 @@
       <c r="E37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>126</v>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
@@ -2419,105 +2461,105 @@
         <v>46</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>156</v>
+        <v>126</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>185</v>
+      <c r="B42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>247</v>
+        <v>175</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -2807,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>252</v>
@@ -2888,9 +2930,32 @@
         <v>265</v>
       </c>
     </row>
+    <row r="59" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
-    <sortCondition ref="I1:I42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I59">
+    <sortCondition descending="1" ref="I26:I59"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E63228-4E3D-4516-BEF9-0F20E1A61A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DF209-EC04-4E6A-AF7B-ED5D6C2A1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="311">
   <si>
     <t>序号</t>
   </si>
@@ -42,9 +42,6 @@
     <t>升级后描述</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -783,14 +780,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>打出魔法卡时，该卡耗能-2。造成20点伤害。斩杀时，再次触发该卡的效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出魔法卡时，该卡耗能-2。造成25点伤害。斩杀时，再次触发该卡的效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>调整步伐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -839,26 +828,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>再现日记任意卡牌。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>日记/保留</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无声吟咏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>保留</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -895,14 +872,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，每有1张保留牌，获得5点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，每有1张保留牌，获得7点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1031,11 +1000,190 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得8点格挡。添加1张应急处理到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点格挡。添加1张应急处理+到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <t>打出魔法卡时，该卡本回合耗能-2。造成20点伤害。斩杀时，再次触发该卡的效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出魔法卡时，该卡本回合耗能-2。造成25点伤害。斩杀时，再次触发该卡的效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得4点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecreateMagic</t>
+  </si>
+  <si>
+    <t>DestructionMagic</t>
+  </si>
+  <si>
+    <t>CharmMagic</t>
+  </si>
+  <si>
+    <t>IceConeMagic</t>
+  </si>
+  <si>
+    <t>Recollect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp</t>
+  </si>
+  <si>
+    <t>WitnessOfFriendship</t>
+  </si>
+  <si>
+    <t>IndelibleImprint</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>IntensifyArray</t>
+  </si>
+  <si>
+    <t>WitchRobe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombardmentMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rummage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeavesMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItsMe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penoff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ponder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicSurging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CounterMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottledHappiness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragrantWind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accelerate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustPace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicEcho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilentChant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无声咏唱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reappear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellReorganization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vibration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragmentMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmergencyTreatment</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1554,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1416,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1424,58 +1572,58 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1491,12 +1639,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
@@ -1506,20 +1655,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1528,1434 +1677,1584 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="H15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="I20" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="G24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="B28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="H28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>194</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>32</v>
+      <c r="E30" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
+        <v>211</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>304</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>223</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="2">
-        <v>1</v>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>193</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>201</v>
+      <c r="E44" t="s">
+        <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>193</v>
+        <v>117</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>204</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>211</v>
+        <v>118</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>212</v>
+      <c r="E46" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>216</v>
+        <v>128</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>220</v>
+        <v>135</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>222</v>
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>211</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>230</v>
+        <v>119</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>212</v>
+      <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>226</v>
+        <v>125</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>211</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>238</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I59">
-    <sortCondition descending="1" ref="I26:I59"/>
+    <sortCondition descending="1" ref="I36:I59"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,57 +3292,57 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DF209-EC04-4E6A-AF7B-ED5D6C2A1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF85D118-08FE-4EEA-AA56-60B467D8BA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
     <sheet name="卡牌" sheetId="2" r:id="rId2"/>
-    <sheet name="遗物" sheetId="3" r:id="rId3"/>
+    <sheet name="形态" sheetId="4" r:id="rId3"/>
+    <sheet name="遗物" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="347">
   <si>
     <t>序号</t>
   </si>
@@ -153,9 +154,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-  </si>
-  <si>
     <t>完美的我</t>
   </si>
   <si>
@@ -272,14 +270,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得6点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加一张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>日记</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -408,10 +398,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对所有敌人造成5点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -492,10 +478,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现3张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得10点格挡，使结语获得瞬发效果，不可被记录。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -580,10 +562,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>将日记中的卡牌获取到手牌中，使其获得“虚无”和“消耗”。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成（冬：18）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -776,10 +754,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>雷霆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>调整步伐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -896,10 +870,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成5点伤害。增加3张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -928,26 +898,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当使用瞬发卡牌时，使随机2张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当使用瞬发卡牌时，使随机3张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>日记</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>魔力续行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当使用被再现的卡牌时，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>深层记忆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -956,10 +910,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>你打出的被再现卡牌会被打出两次。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>费用变为2。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1000,14 +950,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>打出魔法卡时，该卡本回合耗能-2。造成20点伤害。斩杀时，再次触发该卡的效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出魔法卡时，该卡本回合耗能-2。造成25点伤害。斩杀时，再次触发该卡的效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取2张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1020,14 +962,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得6点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1184,6 +1118,218 @@
   </si>
   <si>
     <t>EmergencyTreatment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>映像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过再现得到的卡牌被称为映像。映像具有虚无和消耗效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力增幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使魔法卡牌的伤害增加其层数的值。每打出一张魔法卡牌，使层数减半（向下取整）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空想具现化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机3张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机5张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3层魔力增幅。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4层魔力增幅。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力源泉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被打出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到时获得3层魔力增幅，且本回合魔力增幅不会降低。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到时获得4层魔力增幅，且本回合魔力增幅不会降低。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力乱流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到20点伤害。击杀敌人时，伤害加10，再触发一次效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加15，再触发一次效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害。增加1张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成10点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加2张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点格挡，增加1张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当使用映像时，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女魔杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当敌人获得1点力量，获得1层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来X+1回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打出的映像会被打出两次。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一印象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择最多3张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择最多4张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春之欢喜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏之振奋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋之警惕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬之安详</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层再生。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层魔力增幅。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层荆棘。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层多层护甲。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层再生。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层魔力增幅。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层荆棘。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层多层护甲。时节每循环一次，该数值加1。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1541,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1549,12 +1695,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="66.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1575,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,23 +1754,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1637,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1649,20 +1812,20 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1677,85 +1840,85 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>280</v>
+      <c r="A4" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>101</v>
@@ -1764,1497 +1927,1626 @@
         <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>185</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
+      <c r="B8" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
+      <c r="E8" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>276</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>203</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
+      <c r="B10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>217</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
+      <c r="E11" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>250</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="B12" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>169</v>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>226</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>53</v>
+        <v>227</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>77</v>
+      <c r="E27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="G30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>260</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="B48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="F49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="F59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="I60" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>257</v>
+      <c r="I61" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I59">
-    <sortCondition descending="1" ref="I36:I59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
+    <sortCondition descending="1" ref="C1:C64"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3263,11 +3555,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35D86FA-939E-437F-9BF5-444D6747B3CB}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3292,10 +3726,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
@@ -3303,7 +3737,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -3314,35 +3748,46 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF85D118-08FE-4EEA-AA56-60B467D8BA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101478E-7A7B-426F-9C17-F076EDEDDF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
     <sheet name="卡牌" sheetId="2" r:id="rId2"/>
-    <sheet name="形态" sheetId="4" r:id="rId3"/>
-    <sheet name="遗物" sheetId="3" r:id="rId4"/>
+    <sheet name="S卡牌" sheetId="5" r:id="rId3"/>
+    <sheet name="形态" sheetId="4" r:id="rId4"/>
+    <sheet name="遗物" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="355">
   <si>
     <t>序号</t>
   </si>
@@ -518,14 +519,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>瓶装的幸福</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -714,14 +707,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在战斗中临时增加卡牌时会额外增加一张。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有。在战斗中临时增加卡牌时会额外增加一张。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>保留/沙耶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1149,10 +1134,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当触发瞬发效果时，使随机5张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1330,6 +1311,58 @@
   </si>
   <si>
     <t>获得2层多层护甲。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和2层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡和3层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turnback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstImpression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。这张卡牌被消耗时，增加1张奇迹到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中临时增加卡牌时会额外增加1张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽1张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1690,7 +1723,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1787,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -1775,18 +1808,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1800,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1819,13 +1852,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1843,12 +1876,12 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>139</v>
@@ -1863,24 +1896,24 @@
         <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -1901,12 +1934,12 @@
         <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>119</v>
@@ -1930,12 +1963,12 @@
         <v>53</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>118</v>
@@ -1959,12 +1992,12 @@
         <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>83</v>
@@ -1979,24 +2012,24 @@
         <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2017,638 +2050,697 @@
         <v>52</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>72</v>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>236</v>
+        <v>92</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>79</v>
+        <v>195</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>304</v>
+      <c r="A21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>76</v>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>277</v>
+        <v>125</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>255</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>76</v>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>79</v>
+        <v>314</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>76</v>
+        <v>265</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>79</v>
+        <v>162</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>202</v>
+      <c r="A24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>202</v>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>205</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>202</v>
+        <v>263</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>202</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>214</v>
+        <v>161</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>227</v>
+        <v>316</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>79</v>
+        <v>151</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>89</v>
+        <v>258</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>76</v>
+      <c r="E30" t="s">
+        <v>31</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>91</v>
+        <v>127</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,897 +2748,661 @@
         <v>285</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>198</v>
+      <c r="I38" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>82</v>
+      <c r="A39" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="I39" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="H41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="G48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>258</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" s="5" t="s">
+      <c r="F53" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="H54" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+    <row r="57" spans="2:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>11</v>
+      <c r="F57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>257</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
-    <sortCondition descending="1" ref="C1:C64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I65">
+    <sortCondition descending="1" ref="I26:I65"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3555,6 +3411,287 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35D86FA-939E-437F-9BF5-444D6747B3CB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -3569,15 +3706,15 @@
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3595,10 +3732,10 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3621,7 +3758,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3644,7 +3781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
@@ -3667,7 +3804,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
@@ -3696,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3759,35 +3896,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101478E-7A7B-426F-9C17-F076EDEDDF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F072DB-3BBB-4748-B07F-5340D7F40328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="372">
   <si>
     <t>序号</t>
   </si>
@@ -447,14 +447,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其它手牌时才可打出。触发日记里所有卡牌的瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得等同于所有敌人力量之和的临时敏捷。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1130,10 +1122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当触发瞬发效果时，使随机3张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1146,14 +1134,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得3层魔力增幅。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得4层魔力增幅。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力源泉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1162,14 +1142,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抽到时获得3层魔力增幅，且本回合魔力增幅不会降低。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽到时获得4层魔力增幅，且本回合魔力增幅不会降低。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力乱流</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1214,10 +1186,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当使用映像时，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1363,6 +1331,106 @@
   </si>
   <si>
     <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机1张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁寒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机消耗1张手牌，增加1张蝶变到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机消耗1张手牌，增加1张蝶变+到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringJoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummerExcitement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutumnVigilance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinterPeace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicDiffusion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endurance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使弃牌堆所有卡牌获得瞬发。若弃牌堆无可获得瞬发的卡牌，则触发日记里的所有瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得1层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得2层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去2点临时力量，获得4层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去3点临时力量，获得6层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。本回合使用映像时，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修辞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡，升级结语，增加1张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡，升级结语，增加2张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhetoric</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1787,7 +1855,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -1808,18 +1876,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1846,19 +1914,19 @@
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="47.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1876,15 +1944,15 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -1896,24 +1964,24 @@
         <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -1934,12 +2002,12 @@
         <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>119</v>
@@ -1963,12 +2031,12 @@
         <v>53</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>118</v>
@@ -1992,12 +2060,12 @@
         <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>83</v>
@@ -2012,24 +2080,24 @@
         <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2041,7 +2109,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>58</v>
@@ -2050,131 +2118,131 @@
         <v>52</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>84</v>
@@ -2186,50 +2254,50 @@
         <v>76</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>84</v>
@@ -2238,30 +2306,30 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2270,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>32</v>
@@ -2279,15 +2347,15 @@
         <v>52</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>89</v>
@@ -2299,21 +2367,21 @@
         <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -2337,128 +2405,131 @@
         <v>92</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>348</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>195</v>
+        <v>123</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>78</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>306</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
@@ -2466,28 +2537,28 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
+      <c r="E22" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>265</v>
+      <c r="A23" t="s">
+        <v>252</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
@@ -2495,86 +2566,86 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>76</v>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>162</v>
+        <v>138</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>254</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>22</v>
+        <v>127</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>267</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>47</v>
+        <v>308</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>78</v>
@@ -2583,56 +2654,56 @@
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>265</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>82</v>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
+      <c r="A28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
@@ -2641,233 +2712,233 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>42</v>
+      <c r="E29" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
+      <c r="A30" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>31</v>
+      <c r="E30" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>175</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>177</v>
+        <v>305</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>242</v>
+        <v>247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>244</v>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>78</v>
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>194</v>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>250</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>251</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2875,461 +2946,444 @@
       <c r="E36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>8</v>
+      <c r="F36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
+        <v>250</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>46</v>
+      <c r="F37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>253</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>34</v>
+      <c r="E38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>47</v>
+        <v>179</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>356</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
+      <c r="E39" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>132</v>
+        <v>346</v>
       </c>
       <c r="H39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>66</v>
+      <c r="I41" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C45" s="5" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>2</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="F49" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="H52" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="H53" s="5" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>303</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>89</v>
@@ -3338,71 +3392,115 @@
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="F56" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="F58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I65">
-    <sortCondition descending="1" ref="I26:I65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
+    <sortCondition descending="1" ref="I51:I63"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,22 +3510,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="6" max="6" width="29.88671875" customWidth="1"/>
     <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>85</v>
@@ -3442,21 +3541,21 @@
         <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>80</v>
@@ -3480,94 +3579,94 @@
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,9 +3692,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>76</v>
@@ -3607,18 +3709,21 @@
         <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>76</v>
@@ -3630,18 +3735,21 @@
         <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>76</v>
@@ -3653,18 +3761,21 @@
         <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>76</v>
@@ -3676,13 +3787,71 @@
         <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>156</v>
+      <c r="G11" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3708,13 +3877,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3732,7 +3901,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -3755,7 +3924,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -3778,7 +3947,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -3801,7 +3970,7 @@
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -3818,13 +3987,13 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3896,35 +4065,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F072DB-3BBB-4748-B07F-5340D7F40328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270B18A-225A-458C-BB8D-C90758EE2ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="380">
   <si>
     <t>序号</t>
   </si>
@@ -347,14 +347,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>（1：获得随机一件遗物。）（其它：获得8金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1，12：获得随机一件遗物。）（其它：获得10金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -615,10 +607,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>记录1张手牌，使随机敌人获得等同于被记录卡牌费用的力量。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>费用变为0。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1334,10 +1322,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当触发瞬发效果时，使随机1张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>岁寒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1431,6 +1415,54 @@
   </si>
   <si>
     <t>Rhetoric</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reconsitution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepMemory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarblePhantasm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardsWell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThePerfectMe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvergenceMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。固有。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用-1的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用-2的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（春：获得随机一件遗物。）（其它：获得15金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（春：获得随机一件遗物。）（其它：获得20金币。）消耗。时令·新年。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1831,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,7 +1871,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1887,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -1876,18 +1908,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1920,13 +1952,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1944,15 +1976,15 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -1964,74 +1996,74 @@
         <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>257</v>
+      <c r="A3" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -2039,115 +2071,115 @@
         <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>178</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>169</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,210 +2187,210 @@
         <v>277</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
+      <c r="G15" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>258</v>
+      <c r="A16" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2367,1046 +2399,1118 @@
         <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="I21" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D18">
+      <c r="F22" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>65</v>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>358</v>
+        <v>97</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>316</v>
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>182</v>
+        <v>62</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>188</v>
+      <c r="E52" t="s">
+        <v>31</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>293</v>
+        <v>235</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D54">
-        <v>1</v>
+      <c r="D54" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="5">
+        <v>179</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>363</v>
+        <v>187</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>89</v>
@@ -3418,18 +3522,18 @@
         <v>82</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>78</v>
@@ -3441,16 +3545,16 @@
         <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
@@ -3464,43 +3568,21 @@
         <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
-    <sortCondition descending="1" ref="I51:I63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
+    <sortCondition descending="1" ref="I46:I64"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3526,7 +3608,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>85</v>
@@ -3541,21 +3623,21 @@
         <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>80</v>
@@ -3579,99 +3661,99 @@
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -3683,7 +3765,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>41</v>
@@ -3694,10 +3776,10 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>76</v>
@@ -3709,21 +3791,21 @@
         <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>76</v>
@@ -3735,21 +3817,21 @@
         <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>76</v>
@@ -3761,21 +3843,21 @@
         <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>76</v>
@@ -3787,71 +3869,71 @@
         <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3877,13 +3959,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3901,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -3924,7 +4006,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -3941,13 +4023,13 @@
         <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -3964,13 +4046,13 @@
         <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -3987,13 +4069,13 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4114,7 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>76</v>
@@ -4043,7 +4125,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -4054,46 +4136,46 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270B18A-225A-458C-BB8D-C90758EE2ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0E11D-4B14-4858-A1E1-11D63291506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="381">
   <si>
     <t>序号</t>
   </si>
@@ -236,9 +236,6 @@
     <t>成长</t>
   </si>
   <si>
-    <t>获得2点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-  </si>
-  <si>
     <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -455,30 +452,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得10点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得10点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>费用变为1。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成10点伤害。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>日记/形态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -539,14 +520,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成（冬：18）/（春秋夏：9）点伤害。（夏：消耗）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成（冬：22）/（春秋夏：11）点伤害。（夏：消耗）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -583,10 +556,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得14点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取3张卡牌。速记。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -627,14 +596,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：所有敌人失去8点生命）消耗。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：所有敌人失去6点生命）消耗。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -643,14 +604,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成7点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>闪光魔法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -783,10 +736,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得5格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得7格挡。增加1张释放到手牌中。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -815,10 +764,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成5点伤害。增加2张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法/保留</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -919,10 +864,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>回合开始时，手牌中每有1张保留牌，获得4点格挡。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1134,14 +1075,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得9点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点格挡。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>雷霆魔法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1154,10 +1087,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成5点伤害。增加1张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1170,10 +1099,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得6点格挡，增加1张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1274,14 +1199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得7点格挡和2层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得9点格挡和3层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Turnback</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1310,10 +1227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽1张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1386,14 +1299,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>失去2点临时力量，获得4层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去3点临时力量，获得6层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>再现结语。本回合使用映像时，再现结语。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1406,14 +1311,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得5点格挡，升级结语，增加1张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡，升级结语，增加2张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Rhetoric</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1463,6 +1360,114 @@
   </si>
   <si>
     <t>（春：获得随机一件遗物。）（其它：获得20金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得12点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：给予所有敌人5层中毒）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：给予所有敌人6层中毒）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得5点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去5点临时力量，获得10层魔力增幅。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去6点临时力量，获得12层魔力增幅。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchsCauldron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡，升级结语，增加1张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，升级结语，增加2张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得16点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加1张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。瞬发。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成14点伤害。瞬发。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成18点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成20点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。增加1张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。增加2张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和4层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡和6层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点格挡，使结语获得瞬发效果，不可被记录。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1834,7 +1839,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1855,7 +1860,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1871,7 +1876,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,39 +1892,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1935,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1950,15 +1955,15 @@
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1976,47 +1981,48 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2025,27 +2031,30 @@
         <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2054,53 +2063,53 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2112,7 +2121,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>58</v>
@@ -2121,169 +2130,178 @@
         <v>52</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>168</v>
+        <v>356</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="I9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>360</v>
@@ -2292,163 +2310,172 @@
         <v>361</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="I13" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2457,30 +2484,30 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2489,7 +2516,7 @@
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>32</v>
@@ -2498,244 +2525,244 @@
         <v>52</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -2750,56 +2777,56 @@
         <v>31</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2808,7 +2835,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>32</v>
@@ -2817,15 +2844,15 @@
         <v>52</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -2837,21 +2864,21 @@
         <v>42</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
@@ -2863,24 +2890,24 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -2895,7 +2922,7 @@
         <v>42</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>22</v>
@@ -2904,12 +2931,12 @@
         <v>48</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2924,114 +2951,123 @@
         <v>31</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>125</v>
+        <v>354</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>157</v>
+        <v>365</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="F36" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="I36" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -3043,21 +3079,24 @@
         <v>42</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
         <v>69</v>
@@ -3072,140 +3111,155 @@
         <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>172</v>
+        <v>371</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>215</v>
+        <v>374</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -3226,12 +3280,12 @@
         <v>46</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -3255,15 +3309,15 @@
         <v>46</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3278,18 +3332,18 @@
         <v>34</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>19</v>
@@ -3298,56 +3352,59 @@
         <v>18</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="H48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>29</v>
@@ -3382,10 +3439,10 @@
         <v>31</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>62</v>
@@ -3429,36 +3486,36 @@
         <v>31</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I53" s="5"/>
     </row>
@@ -3467,19 +3524,19 @@
         <v>55</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>57</v>
@@ -3487,71 +3544,71 @@
     </row>
     <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,10 +3625,10 @@
         <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>62</v>
@@ -3608,152 +3665,152 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -3765,7 +3822,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>41</v>
@@ -3776,164 +3833,164 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3959,13 +4016,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3983,7 +4040,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4006,7 +4063,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -4023,13 +4080,13 @@
         <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4046,13 +4103,13 @@
         <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -4069,13 +4126,13 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4114,10 +4171,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
@@ -4125,7 +4182,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -4136,46 +4193,46 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0E11D-4B14-4858-A1E1-11D63291506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08056A6B-FFFA-4E26-B926-21F550DD16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="360" windowWidth="20196" windowHeight="11928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="385">
   <si>
     <t>序号</t>
   </si>
@@ -1468,6 +1468,22 @@
   </si>
   <si>
     <t>获得11点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。增加1张没错，就是我到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。增加1张没错，就是我到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/魔法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1941,7 +1957,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2042,9 +2058,7 @@
       <c r="I3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2161,9 +2175,7 @@
       <c r="I7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2222,9 +2234,7 @@
       <c r="I9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2254,9 +2264,7 @@
       <c r="I10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2315,9 +2323,7 @@
       <c r="I12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -2405,9 +2411,7 @@
       <c r="I15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2495,9 +2499,7 @@
       <c r="I18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2962,9 +2964,7 @@
       <c r="I34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -2994,9 +2994,7 @@
       <c r="I35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3026,9 +3024,7 @@
       <c r="I36" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3058,9 +3054,7 @@
       <c r="I37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3090,9 +3084,7 @@
       <c r="I38" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3122,9 +3114,7 @@
       <c r="I39" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -3154,9 +3144,7 @@
       <c r="I40" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -3186,9 +3174,7 @@
       <c r="I41" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -3218,9 +3204,7 @@
       <c r="I42" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -3250,9 +3234,7 @@
       <c r="I43" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -3369,9 +3351,7 @@
       <c r="I47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3634,7 +3614,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
     <row r="60" spans="2:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08056A6B-FFFA-4E26-B926-21F550DD16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F839892-2BAF-40D8-A3AE-3A89DFC3AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="360" windowWidth="20196" windowHeight="11928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F839892-2BAF-40D8-A3AE-3A89DFC3AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4556EA-08FB-4674-9A4A-A35ABFC45BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="393">
   <si>
     <t>序号</t>
   </si>
@@ -221,18 +221,12 @@
     <t>安稳结界</t>
   </si>
   <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得5点格挡，抽1张牌。</t>
-  </si>
-  <si>
     <t>添置新装</t>
   </si>
   <si>
     <t>相对效应</t>
   </si>
   <si>
-    <t>速记。时节变化时将其从弃牌堆添加到手中，获得3点格挡，抽1张牌。</t>
-  </si>
-  <si>
     <t>成长</t>
   </si>
   <si>
@@ -772,14 +766,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对随机敌人造成3点伤害。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成5点伤害。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -864,10 +850,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，手牌中每有1张保留牌，获得4点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1139,14 +1121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>选择最多3张牌丢弃并记录。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择最多4张牌丢弃并记录。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>春之欢喜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1484,6 +1458,66 @@
   </si>
   <si>
     <t>日记/魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张卡牌，选择最多3张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张卡牌，选择最多4张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成3点伤害，如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成5点伤害如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reversal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。击晕所有造成伤害大于等于伊蕾娜当前生命值一半的敌人。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示弱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予自己1层 *易伤 ，增加1张 *反转 到手牌中。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予自己1层 *易伤 ，增加1张 *反转+ 到手牌中。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/挑衅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1855,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1876,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1934,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,39 +1942,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1956,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1973,13 +2007,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1997,48 +2031,48 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2047,28 +2081,28 @@
         <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2077,53 +2111,53 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2135,7 +2169,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>58</v>
@@ -2144,342 +2178,342 @@
         <v>52</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>227</v>
+        <v>378</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>299</v>
+        <v>380</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2488,28 +2522,28 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2518,7 +2552,7 @@
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>32</v>
@@ -2527,244 +2561,244 @@
         <v>52</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -2779,56 +2813,56 @@
         <v>31</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2837,7 +2871,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>32</v>
@@ -2846,15 +2880,15 @@
         <v>52</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -2866,21 +2900,21 @@
         <v>42</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
@@ -2892,24 +2926,24 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -2924,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>22</v>
@@ -2933,12 +2967,12 @@
         <v>48</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
@@ -2953,115 +2987,115 @@
         <v>31</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -3073,25 +3107,25 @@
         <v>42</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3103,145 +3137,145 @@
         <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -3262,12 +3296,12 @@
         <v>46</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -3291,15 +3325,15 @@
         <v>46</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3314,18 +3348,18 @@
         <v>34</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>19</v>
@@ -3340,51 +3374,51 @@
         <v>31</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>29</v>
@@ -3419,10 +3453,10 @@
         <v>31</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>62</v>
@@ -3430,7 +3464,7 @@
     </row>
     <row r="51" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
@@ -3441,20 +3475,22 @@
       <c r="E51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>65</v>
+      <c r="F51" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="52" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -3466,36 +3502,36 @@
         <v>31</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="H52" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="I53" s="5"/>
     </row>
@@ -3504,19 +3540,19 @@
         <v>55</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>57</v>
@@ -3524,71 +3560,71 @@
     </row>
     <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="H55" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3605,10 +3641,10 @@
         <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>62</v>
@@ -3616,28 +3652,50 @@
     </row>
     <row r="59" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
     <row r="63" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
@@ -3651,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3667,152 +3725,152 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>205</v>
+        <v>382</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -3824,7 +3882,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>41</v>
@@ -3835,164 +3893,193 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4018,13 +4105,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4042,7 +4129,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4065,7 +4152,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -4082,13 +4169,13 @@
         <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4105,13 +4192,13 @@
         <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -4128,13 +4215,13 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4173,10 +4260,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
@@ -4184,7 +4271,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -4195,46 +4282,46 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4556EA-08FB-4674-9A4A-A35ABFC45BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B508DF-9595-497D-A09A-4A4C601E5EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="96" windowWidth="20196" windowHeight="11928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="394">
   <si>
     <t>序号</t>
   </si>
@@ -1518,6 +1518,10 @@
   </si>
   <si>
     <t>保留/挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowWeakness</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1991,7 +1995,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3416,7 +3420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>138</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>66</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>213</v>
       </c>
@@ -3535,7 +3539,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
@@ -3558,7 +3562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>170</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>276</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>135</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>374</v>
       </c>
@@ -3673,7 +3677,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="B60" s="5" t="s">
         <v>389</v>
       </c>
@@ -3695,8 +3702,11 @@
       <c r="H60" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I60" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
     <sortCondition descending="1" ref="I46:I64"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B508DF-9595-497D-A09A-4A4C601E5EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DCDFEC-1A83-475D-828C-9412B3D38487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="96" windowWidth="20196" windowHeight="11928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="399">
   <si>
     <t>序号</t>
   </si>
@@ -1522,6 +1522,26 @@
   </si>
   <si>
     <t>ShowWeakness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我保护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得7点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得10点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDefense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewClothes</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1994,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3467,6 +3487,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -3703,6 +3726,35 @@
         <v>392</v>
       </c>
       <c r="I60" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>143</v>
       </c>
     </row>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DCDFEC-1A83-475D-828C-9412B3D38487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FEF7D-1069-463A-A4FC-29E68FDD1E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="402">
   <si>
     <t>序号</t>
   </si>
@@ -1213,14 +1213,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>随机消耗1张手牌，增加1张蝶变到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机消耗1张手牌，增加1张蝶变+到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SpringJoy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1542,6 +1534,26 @@
   </si>
   <si>
     <t>NewClothes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1张手牌，增加1张蝶变到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1张手牌，增加1张蝶变+到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awaken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像。 NL 将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2014,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2090,7 @@
         <v>313</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
@@ -2222,10 +2234,10 @@
         <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>69</v>
@@ -2284,7 +2296,7 @@
         <v>193</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>191</v>
@@ -2311,10 +2323,10 @@
         <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>191</v>
@@ -2341,10 +2353,10 @@
         <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>76</v>
@@ -2370,10 +2382,10 @@
         <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>175</v>
@@ -2385,7 +2397,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>194</v>
@@ -2414,7 +2426,7 @@
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>206</v>
@@ -2432,7 +2444,7 @@
         <v>314</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>209</v>
@@ -2443,10 +2455,10 @@
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>81</v>
@@ -2458,10 +2470,10 @@
         <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>76</v>
@@ -2473,7 +2485,7 @@
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>284</v>
@@ -2488,7 +2500,7 @@
         <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>153</v>
@@ -2502,7 +2514,7 @@
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>291</v>
@@ -2546,10 +2558,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>62</v>
@@ -2706,7 +2718,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>315</v>
@@ -2721,10 +2733,10 @@
         <v>73</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>176</v>
@@ -2735,7 +2747,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>210</v>
@@ -2764,7 +2776,7 @@
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>270</v>
@@ -2793,7 +2805,7 @@
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>274</v>
@@ -2808,10 +2820,10 @@
         <v>73</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>175</v>
@@ -2822,7 +2834,7 @@
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -2837,7 +2849,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>153</v>
@@ -2851,10 +2863,10 @@
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>86</v>
@@ -2866,10 +2878,10 @@
         <v>79</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>175</v>
@@ -3011,10 +3023,10 @@
         <v>31</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>47</v>
@@ -3041,7 +3053,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>282</v>
@@ -3071,10 +3083,10 @@
         <v>79</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
@@ -3101,10 +3113,10 @@
         <v>73</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>141</v>
@@ -3131,10 +3143,10 @@
         <v>42</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>60</v>
@@ -3191,10 +3203,10 @@
         <v>159</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>204</v>
@@ -3221,10 +3233,10 @@
         <v>199</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>200</v>
@@ -3251,10 +3263,10 @@
         <v>220</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>221</v>
@@ -3281,10 +3293,10 @@
         <v>73</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>175</v>
@@ -3398,10 +3410,10 @@
         <v>31</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>76</v>
@@ -3488,7 +3500,7 @@
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
@@ -3503,10 +3515,10 @@
         <v>31</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>62</v>
@@ -3679,7 +3691,7 @@
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>101</v>
@@ -3691,21 +3703,21 @@
         <v>79</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>81</v>
@@ -3717,13 +3729,13 @@
         <v>73</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>143</v>
@@ -3731,10 +3743,10 @@
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>81</v>
@@ -3746,15 +3758,44 @@
         <v>95</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I61" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3918,10 +3959,10 @@
         <v>199</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>200</v>
@@ -3955,7 +3996,7 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>293</v>
@@ -3981,7 +4022,7 @@
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>294</v>
@@ -4007,7 +4048,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>295</v>
@@ -4033,7 +4074,7 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>296</v>
@@ -4059,7 +4100,7 @@
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>309</v>
@@ -4103,7 +4144,7 @@
         <v>179</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>188</v>
@@ -4117,10 +4158,10 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>73</v>
@@ -4132,13 +4173,13 @@
         <v>73</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>143</v>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FEF7D-1069-463A-A4FC-29E68FDD1E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653F681-1D13-48D3-9CDE-163292F86781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="412">
   <si>
     <t>序号</t>
   </si>
@@ -128,9 +128,6 @@
     <t>再现</t>
   </si>
   <si>
-    <t>造成9点伤害，再现结语。</t>
-  </si>
-  <si>
     <t>战斗形态</t>
   </si>
   <si>
@@ -446,10 +443,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>接下来X回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>费用变为1。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -526,10 +519,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成12点伤害，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -546,10 +535,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得2点力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取3张卡牌。速记。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1105,10 +1090,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>接下来X+1回合，回合开始时，时节回退1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>你打出的映像会被打出两次。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1257,10 +1238,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得1层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得2层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1317,10 +1294,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>记录1张手牌。使随机1个敌人获得卡牌费用-2的力量。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>（春：获得随机一件遗物。）（其它：获得15金币。）消耗。时令·新年。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1553,7 +1526,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像。 NL 将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
+    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像，将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得1点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成11点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术共振</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得1层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得2层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得3层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得4层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellLink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellResonance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出时，时节回退X。接下来X回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出时，时节回退X。接下来X+1回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeGoesBack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1966,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1946,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1954,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +2003,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1970,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,39 +2019,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2024,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2043,13 +2084,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2064,81 +2105,81 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2147,53 +2188,53 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2202,936 +2243,907 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>86</v>
+      <c r="A18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="I26" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="G31" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F32" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>48</v>
+        <v>320</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>393</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>73</v>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>166</v>
+        <v>117</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>239</v>
+      <c r="A36" t="s">
+        <v>226</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>79</v>
+      <c r="E36" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>76</v>
+        <v>277</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>115</v>
+        <v>225</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -3140,324 +3152,327 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>361</v>
+        <v>127</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="A39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>69</v>
+        <v>349</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I44" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
+        <v>258</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>46</v>
+      <c r="E45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>228</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>34</v>
+      <c r="E46" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>47</v>
+        <v>360</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>301</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>31</v>
+      <c r="E47" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>101</v>
+        <v>220</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>69</v>
+      <c r="E48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>29</v>
+      <c r="A49" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3465,344 +3480,410 @@
       <c r="E49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>32</v>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>119</v>
+        <v>400</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>396</v>
+        <v>223</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H51" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="5">
+        <v>203</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
-        <v>135</v>
+        <v>213</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>136</v>
+        <v>409</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>69</v>
+        <v>410</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>31</v>
+      <c r="B58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>62</v>
+        <v>169</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="B60" s="5" t="s">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="5">
+        <v>74</v>
+      </c>
+      <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="5">
-        <v>2</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>95</v>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>393</v>
+        <v>147</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="5">
         <v>2</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E64" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
-    <sortCondition descending="1" ref="I46:I64"/>
+    <sortCondition descending="1" ref="I51:I64"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3812,15 +3893,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="6" max="6" width="29.88671875" customWidth="1"/>
     <col min="7" max="7" width="30.44140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -3828,152 +3910,152 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -3982,207 +4064,236 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4208,13 +4319,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4229,10 +4340,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4246,21 +4357,21 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -4269,21 +4380,21 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -4292,21 +4403,21 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -4315,16 +4426,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4363,10 +4474,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
@@ -4374,57 +4485,57 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653F681-1D13-48D3-9CDE-163292F86781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA4E02-FF96-456F-A961-9F11E216C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA4E02-FF96-456F-A961-9F11E216C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD178C-E480-48A9-BD3A-DB8C0AE21301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,727 +874,730 @@
     <t>GrowUp</t>
   </si>
   <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>WitchRobe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombardmentMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rummage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeavesMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItsMe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penoff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ponder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicSurging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CounterMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottledHappiness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragrantWind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accelerate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustPace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicEcho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilentChant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无声咏唱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reappear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellReorganization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vibration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragmentMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmergencyTreatment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>映像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过再现得到的卡牌被称为映像。映像具有虚无和消耗效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力增幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使魔法卡牌的伤害增加其层数的值。每打出一张魔法卡牌，使层数减半（向下取整）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空想具现化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力源泉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被打出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力乱流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到20点伤害。击杀敌人时，伤害加10，再触发一次效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加15，再触发一次效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成10点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加2张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女魔杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当敌人获得1点力量，获得1层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打出的映像会被打出两次。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一印象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春之欢喜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏之振奋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋之警惕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬之安详</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层再生。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层魔力增幅。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层荆棘。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层多层护甲。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层再生。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层魔力增幅。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层荆棘。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层多层护甲。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turnback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstImpression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。这张卡牌被消耗时，增加1张奇迹到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中临时增加卡牌时会额外增加1张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁寒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringJoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummerExcitement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutumnVigilance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinterPeace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicDiffusion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endurance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使弃牌堆所有卡牌获得瞬发。若弃牌堆无可获得瞬发的卡牌，则触发日记里的所有瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得2层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。本回合使用映像时，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修辞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhetoric</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reconsitution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepMemory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarblePhantasm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardsWell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThePerfectMe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvergenceMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。固有。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用-1的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（春：获得随机一件遗物。）（其它：获得15金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（春：获得随机一件遗物。）（其它：获得20金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得12点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：给予所有敌人5层中毒）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：给予所有敌人6层中毒）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得5点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去5点临时力量，获得10层魔力增幅。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去6点临时力量，获得12层魔力增幅。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchsCauldron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡，升级结语，增加1张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，升级结语，增加2张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得16点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加1张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。瞬发。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成14点伤害。瞬发。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成18点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成20点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。增加1张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。增加2张碎片魔法到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和4层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡和6层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。增加1张没错，就是我到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。增加1张没错，就是我到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张卡牌，选择最多3张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张卡牌，选择最多4张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成3点伤害，如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成5点伤害如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reversal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。击晕所有造成伤害大于等于伊蕾娜当前生命值一半的敌人。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示弱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予自己1层 *易伤 ，增加1张 *反转 到手牌中。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予自己1层 *易伤 ，增加1张 *反转+ 到手牌中。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowWeakness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我保护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得7点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得10点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDefense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewClothes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1张手牌，增加1张蝶变到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1张手牌，增加1张蝶变+到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awaken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像，将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得1点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成11点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术共振</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得1层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得2层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得3层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得4层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellLink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellResonance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出时，时节回退X。接下来X回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出时，时节回退X。接下来X+1回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeGoesBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得3层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndelibleImprint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntensifyArray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>WitnessOfFriendship</t>
-  </si>
-  <si>
-    <t>IndelibleImprint</t>
-  </si>
-  <si>
-    <t>Rush</t>
-  </si>
-  <si>
-    <t>IntensifyArray</t>
-  </si>
-  <si>
-    <t>WitchRobe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombardmentMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rummage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeavesMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItsMe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penoff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ponder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicSurging</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CounterMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drawup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BottledHappiness</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlashMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FragrantWind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accelerate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjustPace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicEcho</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SilentChant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无声咏唱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reappear</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellReorganization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vibration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FragmentMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmergencyTreatment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>映像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过再现得到的卡牌被称为映像。映像具有虚无和消耗效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力增幅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将日记中的卡牌获取到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使魔法卡牌的伤害增加其层数的值。每打出一张魔法卡牌，使层数减半（向下取整）。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>空想具现化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。虚无。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力源泉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可被打出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力乱流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到20点伤害。击杀敌人时，伤害加10，再触发一次效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加15，再触发一次效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成10点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加2张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女魔杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当敌人获得1点力量，获得1层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你打出的映像会被打出两次。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一印象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>春之欢喜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏之振奋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋之警惕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬之安详</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层再生。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层魔力增幅。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层荆棘。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层多层护甲。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层再生。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层魔力增幅。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层荆棘。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层多层护甲。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回旋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turnback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstImpression</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accumulation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝶变</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。这张卡牌被消耗时，增加1张奇迹到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在战斗中临时增加卡牌时会额外增加1张。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁寒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringJoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SummerExcitement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutumnVigilance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WinterPeace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicDiffusion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endurance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使弃牌堆所有卡牌获得瞬发。若弃牌堆无可获得瞬发的卡牌，则触发日记里的所有瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇聚魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得1层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得2层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。本回合使用映像时，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修辞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rhetoric</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continuation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reconsitution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepMemory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarblePhantasm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardsWell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThePerfectMe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvergenceMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。固有。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录1张手牌。使随机1个敌人获得卡牌费用-1的力量。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（春：获得随机一件遗物。）（其它：获得15金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（春：获得随机一件遗物。）（其它：获得20金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得12点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：给予所有敌人5层中毒）消耗。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：给予所有敌人6层中毒）消耗。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，手牌中每有1张保留牌，获得5点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无结语时无法打出。失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去5点临时力量，获得10层魔力增幅。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去6点临时力量，获得12层魔力增幅。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WitchsCauldron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡，升级结语，增加1张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡，升级结语，增加2张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得16点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加1张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。瞬发。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成14点伤害。瞬发。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成18点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成20点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害。增加1张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害。增加2张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡和4层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得9点格挡和6层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。增加1张没错，就是我到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。增加1张没错，就是我到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽1张卡牌，选择最多3张牌丢弃并记录。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽1张卡牌，选择最多4张牌丢弃并记录。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成3点伤害，如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成5点伤害如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得9点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reversal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留。击晕所有造成伤害大于等于伊蕾娜当前生命值一半的敌人。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>示弱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予自己1层 *易伤 ，增加1张 *反转 到手牌中。 NL *消耗 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予自己1层 *易伤 ，增加1张 *反转+ 到手牌中。 NL *消耗 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留/挑衅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowWeakness</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我保护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得7点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得10点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfDefense</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewClothes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗1张手牌，增加1张蝶变到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗1张手牌，增加1张蝶变+到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初醒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Awaken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像，将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得1点力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录1张手牌。使随机1个敌人获得卡牌费用的力量。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害，再现结语，使其本回合费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成11点伤害，再现结语，使其本回合费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术共振</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得1层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得2层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得3层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得4层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellLink</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellResonance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出时，时节回退X。接下来X回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出时，时节回退X。接下来X+1回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeGoesBack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1958,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -2040,18 +2043,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2077,8 +2080,8 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2128,10 +2131,10 @@
         <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>75</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>113</v>
@@ -2173,7 +2176,7 @@
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>112</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>79</v>
@@ -2229,9 +2232,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>128</v>
@@ -2258,9 +2261,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>151</v>
@@ -2275,10 +2278,10 @@
         <v>153</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>68</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>173</v>
@@ -2319,10 +2322,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>174</v>
@@ -2337,7 +2340,7 @@
         <v>189</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>187</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>193</v>
@@ -2364,10 +2367,10 @@
         <v>194</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>187</v>
@@ -2377,12 +2380,12 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>80</v>
@@ -2394,10 +2397,10 @@
         <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>75</v>
@@ -2408,10 +2411,10 @@
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>80</v>
@@ -2423,10 +2426,10 @@
         <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>171</v>
@@ -2438,7 +2441,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>190</v>
@@ -2467,7 +2470,7 @@
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>202</v>
@@ -2482,10 +2485,10 @@
         <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>205</v>
@@ -2496,10 +2499,10 @@
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>80</v>
@@ -2511,10 +2514,10 @@
         <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>75</v>
@@ -2526,10 +2529,10 @@
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>203</v>
@@ -2541,7 +2544,7 @@
         <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>149</v>
@@ -2555,10 +2558,10 @@
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>80</v>
@@ -2570,7 +2573,7 @@
         <v>72</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>121</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>64</v>
@@ -2599,10 +2602,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>61</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>80</v>
@@ -2629,13 +2632,13 @@
         <v>72</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>140</v>
@@ -2643,10 +2646,10 @@
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>80</v>
@@ -2658,10 +2661,10 @@
         <v>94</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>75</v>
@@ -2670,9 +2673,38 @@
         <v>140</v>
       </c>
     </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>230</v>
+      <c r="A22" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>141</v>
@@ -2687,10 +2719,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>61</v>
@@ -2700,8 +2732,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>233</v>
+      <c r="A23" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -2716,7 +2748,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>32</v>
@@ -2729,8 +2761,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>231</v>
+      <c r="A24" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>143</v>
@@ -2759,7 +2791,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>84</v>
@@ -2788,7 +2820,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>163</v>
@@ -2803,7 +2835,7 @@
         <v>164</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>208</v>
@@ -2817,10 +2849,10 @@
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>161</v>
@@ -2832,10 +2864,10 @@
         <v>170</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>171</v>
@@ -2846,10 +2878,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>85</v>
@@ -2861,10 +2893,10 @@
         <v>72</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>172</v>
@@ -2875,7 +2907,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>206</v>
@@ -2890,7 +2922,7 @@
         <v>204</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>208</v>
@@ -2904,10 +2936,10 @@
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>85</v>
@@ -2919,10 +2951,10 @@
         <v>72</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>75</v>
@@ -2933,10 +2965,10 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>85</v>
@@ -2948,10 +2980,10 @@
         <v>72</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>171</v>
@@ -2962,7 +2994,7 @@
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
@@ -2977,7 +3009,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>149</v>
@@ -2991,10 +3023,10 @@
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>85</v>
@@ -3006,10 +3038,10 @@
         <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>171</v>
@@ -3020,10 +3052,10 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>85</v>
@@ -3035,7 +3067,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>149</v>
@@ -3048,30 +3080,30 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>241</v>
+        <v>407</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>32</v>
+        <v>405</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>140</v>
@@ -3079,29 +3111,29 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>226</v>
+      <c r="A36" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>397</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>276</v>
+        <v>400</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>47</v>
+        <v>401</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>140</v>
@@ -3110,28 +3142,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>72</v>
+      <c r="E37" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>140</v>
@@ -3140,10 +3172,10 @@
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>226</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -3155,10 +3187,10 @@
         <v>41</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>22</v>
+        <v>273</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>47</v>
@@ -3170,25 +3202,25 @@
     </row>
     <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>338</v>
+        <v>145</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>46</v>
@@ -3199,207 +3231,207 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="H44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>140</v>
@@ -3407,58 +3439,58 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>140</v>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
+        <v>214</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>45</v>
+      <c r="E48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>140</v>
@@ -3466,28 +3498,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
+        <v>298</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>45</v>
+      <c r="E49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>140</v>
@@ -3510,10 +3542,10 @@
         <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>46</v>
@@ -3524,68 +3556,71 @@
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3593,297 +3628,265 @@
       <c r="E53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>31</v>
+      <c r="F53" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>31</v>
+        <v>158</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>68</v>
+        <v>364</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>203</v>
+        <v>136</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I56" s="5"/>
+      <c r="E56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>409</v>
+        <v>93</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>410</v>
+        <v>118</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>161</v>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>167</v>
+      <c r="E58" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="5">
+        <v>203</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D60">
+      <c r="D62">
         <v>0</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="5">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
-    <sortCondition descending="1" ref="I51:I64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I65">
+    <sortCondition descending="1" ref="I41:I65"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3896,7 +3899,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3910,7 +3913,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>81</v>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>76</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>179</v>
@@ -3997,7 +4000,7 @@
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>188</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>197</v>
@@ -4041,10 +4044,10 @@
         <v>195</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>196</v>
@@ -4078,10 +4081,10 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>72</v>
@@ -4093,10 +4096,10 @@
         <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>140</v>
@@ -4104,10 +4107,10 @@
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>72</v>
@@ -4119,10 +4122,10 @@
         <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>140</v>
@@ -4130,10 +4133,10 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>72</v>
@@ -4145,10 +4148,10 @@
         <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>140</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>72</v>
@@ -4171,10 +4174,10 @@
         <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>140</v>
@@ -4182,25 +4185,25 @@
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>172</v>
@@ -4211,7 +4214,7 @@
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>182</v>
@@ -4226,7 +4229,7 @@
         <v>175</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>184</v>
@@ -4240,10 +4243,10 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>72</v>
@@ -4255,13 +4258,13 @@
         <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>140</v>
@@ -4269,7 +4272,7 @@
     </row>
     <row r="14" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -4284,10 +4287,10 @@
         <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>139</v>
@@ -4529,13 +4532,13 @@
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD178C-E480-48A9-BD3A-DB8C0AE21301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403AD7C0-1D15-473A-BEEE-321AE575BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="411">
   <si>
     <t>序号</t>
   </si>
@@ -218,1386 +218,1383 @@
     <t>安稳结界</t>
   </si>
   <si>
+    <t>相对效应</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将未被消耗的卡牌添加到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起笔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点格挡。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人力量翻倍。时节前进3。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/时令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时令·XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女之旅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮可冒险记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女胸饰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出后立即记录到日记中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶出击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力涌动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反制魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一张沙耶出击到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/魔法/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶/形态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用小于等于上回合失去结语的费用。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去当前结语，对全体敌人造成12点伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶装的幸福</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无民国壁炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有时令牌只会以最佳效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟摆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节不再回退。点击后时节前进2。（剩余次数3）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退1，抽3张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退1，抽4张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶追踪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友谊的见证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不灭印记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取3张卡牌。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕度（4+19+35+17）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20格挡。跳过下一个自己的回合。时节前进1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得25格挡。跳过下一个自己的回合。时节前进2。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落叶魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力回响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/沙耶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合开始时，变化所有保留的卡牌。每变化一张，获得能量*1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整步伐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退4，增加2张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退6，增加3张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进2。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进3。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女的锅炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术重组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力扩散</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深层记忆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为2。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使所有其他敌人的力量加成转移到目标敌人身上。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取2张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecreateMagic</t>
+  </si>
+  <si>
+    <t>DestructionMagic</t>
+  </si>
+  <si>
+    <t>CharmMagic</t>
+  </si>
+  <si>
+    <t>IceConeMagic</t>
+  </si>
+  <si>
+    <t>Recollect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>WitchRobe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombardmentMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rummage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeavesMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItsMe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penoff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ponder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicSurging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CounterMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottledHappiness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragrantWind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accelerate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustPace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicEcho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilentChant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无声咏唱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reappear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellReorganization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vibration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FragmentMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmergencyTreatment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>映像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过再现得到的卡牌被称为映像。映像具有虚无和消耗效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力增幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日记中的卡牌获取到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使魔法卡牌的伤害增加其层数的值。每打出一张魔法卡牌，使层数减半（向下取整）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空想具现化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。虚无。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力源泉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被打出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力乱流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到20点伤害。击杀敌人时，伤害加10，再触发一次效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加15，再触发一次效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成10点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加2张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女魔杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当敌人获得1点力量，获得1层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打出的映像会被打出两次。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一印象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春之欢喜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏之振奋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋之警惕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬之安详</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层再生。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层魔力增幅。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层荆棘。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1层多层护甲。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层再生。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层魔力增幅。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层荆棘。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2层多层护甲。时节每循环一次，该数值加1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turnback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstImpression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。这张卡牌被消耗时，增加1张奇迹到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中临时增加卡牌时会额外增加1张。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁寒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringJoy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummerExcitement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutumnVigilance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinterPeace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicDiffusion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endurance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使弃牌堆所有卡牌获得瞬发。若弃牌堆无可获得瞬发的卡牌，则触发日记里的所有瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得2层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。本回合使用映像时，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修辞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhetoric</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reconsitution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepMemory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarblePhantasm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardsWell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThePerfectMe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvergenceMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。固有。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用-1的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得12点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：给予所有敌人5层中毒）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：给予所有敌人6层中毒）消耗。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无结语时无法打出。失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchsCauldron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡，升级结语，增加1张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡，升级结语，增加2张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得16点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，增加1张停笔到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。瞬发。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成14点伤害。瞬发。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成18点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成20点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡和4层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡和6层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点格挡，使结语获得瞬发效果，不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。增加1张没错，就是我到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。增加1张没错，就是我到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成3点伤害，如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机敌人造成5点伤害如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reversal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。击晕所有造成伤害大于等于伊蕾娜当前生命值一半的敌人。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示弱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予自己1层 *易伤 ，增加1张 *反转 到手牌中。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowWeakness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我保护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得7点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得10点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDefense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewClothes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1张手牌，增加1张蝶变到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1张手牌，增加1张蝶变+到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awaken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像，将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得1点力量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录1张手牌。使随机1个敌人获得卡牌费用的力量。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成11点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术共振</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得1层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得2层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得3层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得4层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellLink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellResonance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出时，时节回退X。接下来X回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出时，时节回退X。接下来X+1回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeGoesBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得3层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndelibleImprint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntensifyArray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitnessOfFriendship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>添置新装</t>
-  </si>
-  <si>
-    <t>相对效应</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将未被消耗的卡牌添加到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为旅行的魔女，伊蕾娜记录身边的见闻。回合结束时，本回合打出的最后一张牌如果进入了弃牌堆，其将会被记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>思索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰击魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>起笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3点格挡。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进2。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人力量翻倍。时节前进3。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/时令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过1层，时节前进1。时节到12后，继续前进则变为1，视为完成了一次循环。每完成1次循环，获得50金币。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时令·XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有时令的卡牌在不同时节有不同的效果，时令后描述的是卡牌发挥最强效果的时节。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得1点敏捷）/（夏：将其消耗）/（春秋：获得1层虚弱）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成6点伤害3次。斩杀时，使所有敌人失去4点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用目标敌人的力量加成。造成7点伤害3次。斩杀时，使所有敌人失去6点临时力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女之旅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>妮可冒险记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女胸饰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出后立即记录到日记中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般情况下，日记里最后一张被记录的牌称为结语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，如果结语有瞬发效果，则发动卡牌的效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出日记最近被记录的2张牌。可被多次升级。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（升级X次）打出日记最近被记录的2+X张牌。可被多次升级。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶出击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成1点伤害，获得3点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法记录魔法卡牌以外的卡牌。所有魔法卡牌附带“瞬发”，“速记”效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力涌动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反制魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加一张沙耶出击到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用大于等于上回合失去结语的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1点临时力量，临时敏捷。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，使所有敌人失去等于其力量4倍的生命值。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/形态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/魔法/形态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶/形态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，失去当前的结语，获得一层无实体，直到本回合失去结语的费用小于等于上回合失去结语的费用。虚无。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去当前结语，对全体敌人造成12点伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶装的幸福</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无民国壁炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有时令牌只会以最佳效果被打出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟摆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节不再回退。点击后时节前进2。（剩余次数3）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退1，抽3张牌。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退1，抽4张牌。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙耶追踪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记。作为结语时，记录卡牌改为获得5点格挡，随机造成5点伤害，失去结语改为受到5点伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记。作为结语时，记录卡牌改为获得7点格挡，随机造成7点伤害，失去结语改为受到7点伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>友谊的见证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不灭印记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取3张卡牌。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取2张卡牌。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>罕度（4+19+35+17）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得20格挡。跳过下一个自己的回合。时节前进1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得25格挡。跳过下一个自己的回合。时节前进2。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>落叶魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>香风</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力回响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留/沙耶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下回合开始时，变化所有保留的卡牌。每变化一张，获得能量*1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整步伐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退4，增加2张加速到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节回退6，增加3张加速到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节前进2。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节前进3。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女的锅炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机增加3张有保留效果的卡牌到手牌中。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术重组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力扩散</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深层记忆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为2。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重分配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使所有其他敌人的力量加成转移到目标敌人身上。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>应急处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取2张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecreateMagic</t>
-  </si>
-  <si>
-    <t>DestructionMagic</t>
-  </si>
-  <si>
-    <t>CharmMagic</t>
-  </si>
-  <si>
-    <t>IceConeMagic</t>
-  </si>
-  <si>
-    <t>Recollect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrowUp</t>
-  </si>
-  <si>
-    <t>Rush</t>
-  </si>
-  <si>
-    <t>WitchRobe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombardmentMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rummage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeavesMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItsMe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penoff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ponder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicSurging</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CounterMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drawup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BottledHappiness</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlashMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FragrantWind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accelerate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjustPace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicEcho</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SilentChant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无声咏唱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reappear</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellReorganization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vibration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FragmentMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmergencyTreatment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>映像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过再现得到的卡牌被称为映像。映像具有虚无和消耗效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力增幅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将日记中的卡牌获取到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使魔法卡牌的伤害增加其层数的值。每打出一张魔法卡牌，使层数减半（向下取整）。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>空想具现化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>速记，记录在日记开头。再现结语。打出时，若为映像，则使所有正面能力的数值翻倍。虚无。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力源泉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可被打出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力乱流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到20点伤害。击杀敌人时，伤害加10，再触发一次效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加15，再触发一次效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成10点伤害。若结语有瞬发效果，则给予所有敌人3层易伤。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加2张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女魔杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当敌人获得1点力量，获得1层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你打出的映像会被打出两次。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一印象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>春之欢喜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏之振奋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋之警惕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬之安详</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层再生。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层魔力增幅。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层荆棘。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1层多层护甲。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层再生。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层魔力增幅。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层荆棘。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层多层护甲。时节每循环一次，该数值加1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回旋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turnback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstImpression</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accumulation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝶变</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留。保留时，消耗随机1张手牌，增加1张奇迹到手牌中。这张卡牌被消耗时，增加1张奇迹到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在战斗中临时增加卡牌时会额外增加1张。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无结语时无法打出。失去当前结语，获得能量*1，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁寒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringJoy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SummerExcitement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutumnVigilance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WinterPeace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicDiffusion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endurance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使弃牌堆所有卡牌获得瞬发。若弃牌堆无可获得瞬发的卡牌，则触发日记里的所有瞬发效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇聚魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得2层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。本回合使用映像时，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修辞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rhetoric</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continuation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reconsitution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepMemory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarblePhantasm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardsWell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThePerfectMe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvergenceMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当触发瞬发效果时，使随机2张手牌获得瞬发效果。固有。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录1张手牌。使随机1个敌人获得卡牌费用-1的力量。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（春：获得随机一件遗物。）（其它：获得15金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（春：获得随机一件遗物。）（其它：获得20金币。）消耗。时令·新年。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得12点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予所有敌人（冬秋：2层虚弱）（春夏：2层虚弱和2层易伤），（夏：给予所有敌人5层中毒）消耗。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予所有敌人（冬秋：3层虚弱）（春夏：3层虚弱和3层易伤），（夏：给予所有敌人6层中毒）消耗。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，手牌中每有1张保留牌，获得5点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无结语时无法打出。失去当前结语，获得能量*2，抽1张牌。若结语有瞬发效果，额外抽2张牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去5点临时力量，获得10层魔力增幅。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去6点临时力量，获得12层魔力增幅。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WitchsCauldron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡，升级结语，增加1张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡，升级结语，增加2张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得16点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，增加1张停笔到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。瞬发。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成14点伤害。瞬发。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成18点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成20点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害。增加1张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害。增加2张碎片魔法到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡和1点敏捷。添加1张本牌的复制到手牌中。使所有敌人获得等同于抽牌堆和弃牌堆中应急处理张数的力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡和4层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得9点格挡和6层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点格挡，使结语获得瞬发效果，不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。增加1张没错，就是我到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害。增加1张没错，就是我到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，手牌中每有1张保留牌，获得3点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽1张卡牌，选择最多3张牌丢弃并记录。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽1张卡牌，选择最多4张牌丢弃并记录。不可被记录。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成3点伤害，如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机敌人造成5点伤害如果有 魔力增幅 ，则抽1张卡牌。速记。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得9点格挡。时节变化时，将这张牌从弃牌堆添加到手中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reversal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留。击晕所有造成伤害大于等于伊蕾娜当前生命值一半的敌人。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>示弱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予自己1层 *易伤 ，增加1张 *反转 到手牌中。 NL *消耗 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予自己1层 *易伤 ，增加1张 *反转+ 到手牌中。 NL *消耗 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留/挑衅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowWeakness</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我保护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得7点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时使随机1张手牌变为映像。 NL 打出映像时获得10点格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfDefense</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewClothes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗1张手牌，增加1张蝶变到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗1张手牌，增加1张蝶变+到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初醒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Awaken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将手牌，弃牌堆，抽牌堆中的卡牌变为映像，将日记卡牌的复制洗入抽牌堆。 NL *消耗 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3层魔力增幅。作为结语时，魔力增幅不会降低。瞬发。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，获得能量*1，额外抽1张牌，使随机1个敌人获得1点力量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录1张手牌。使随机1个敌人获得卡牌费用的力量。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害，再现结语，使其本回合费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成11点伤害，再现结语，使其本回合费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术共振</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得1层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得2层魔力增幅。获得魔力增幅时，获得等量的格挡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得3层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时获得4层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellLink</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellResonance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出时，时节回退X。接下来X回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打出时，时节回退X。接下来X+1回合，回合开始时，时节前进1，随机再现2张卡牌，使其费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeGoesBack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得3层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndelibleImprint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntensifyArray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WitnessOfFriendship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记。获得5点格挡。作为结语时，记录卡牌改为随机造成5点伤害，失去结语改为受到5点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速记。获得7点格挡。作为结语时，记录卡牌改为随机造成7点伤害，失去结语改为受到7点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（春：每个循环限1次：获得随机一件遗物。）（其它：获得15金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（春：每个循环限1次：获得随机一件遗物。）（其它：获得20金币。）消耗。时令·新年。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。本回合使用映像时，再现结语。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4层魔力增幅。作为结语时，打出魔法卡牌只减少1层魔力增幅。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6层魔力增幅。作为结语时，打出魔法卡牌只减少1层魔力增幅。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为0。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，增加一张呼应到手牌中，使其本回合费用变为0。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。增加1张碎片魔法到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。增加2张碎片魔法到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽2张卡牌，选择至少1张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽3张卡牌，选择至少1张牌丢弃并记录。不可被记录。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10层魔力增幅，本回合失去5点力量。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得12层魔力增幅，本回合失去6点力量。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1张 *反转 到手牌中。 NL *消耗 。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1969,7 +1966,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1990,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +2003,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,39 +2019,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2070,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2087,13 +2084,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2111,48 +2108,48 @@
         <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2161,28 +2158,28 @@
         <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2191,65 +2188,65 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>57</v>
@@ -2258,339 +2255,339 @@
         <v>51</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>368</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -2602,115 +2599,115 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2719,27 +2716,27 @@
         <v>31</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2748,7 +2745,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>32</v>
@@ -2757,244 +2754,244 @@
         <v>51</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
@@ -3009,146 +3006,146 @@
         <v>31</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3157,7 +3154,7 @@
         <v>31</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>32</v>
@@ -3166,16 +3163,16 @@
         <v>51</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -3187,22 +3184,22 @@
         <v>41</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
@@ -3214,25 +3211,25 @@
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -3247,7 +3244,7 @@
         <v>41</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
@@ -3256,13 +3253,13 @@
         <v>47</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -3277,85 +3274,85 @@
         <v>31</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="F43" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="I43" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
@@ -3367,24 +3364,24 @@
         <v>41</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -3396,144 +3393,144 @@
         <v>31</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3542,24 +3539,24 @@
         <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -3580,12 +3577,12 @@
         <v>45</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -3609,12 +3606,12 @@
         <v>45</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>19</v>
@@ -3629,79 +3626,79 @@
         <v>31</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>29</v>
@@ -3736,10 +3733,10 @@
         <v>31</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>61</v>
@@ -3747,7 +3744,7 @@
     </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -3759,106 +3756,106 @@
         <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,10 +3872,10 @@
         <v>31</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>61</v>
@@ -3899,7 +3896,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3913,152 +3910,152 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -4070,7 +4067,7 @@
         <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>40</v>
@@ -4081,222 +4078,222 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4322,13 +4319,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4346,7 +4343,7 @@
         <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4369,7 +4366,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -4386,13 +4383,13 @@
         <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4409,13 +4406,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -4432,13 +4429,13 @@
         <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4477,10 +4474,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
@@ -4488,7 +4485,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -4499,46 +4496,46 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403AD7C0-1D15-473A-BEEE-321AE575BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB22D9-466A-4032-9F12-6F6C6027FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="420">
   <si>
     <t>序号</t>
   </si>
@@ -648,10 +648,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时节回退6，增加3张加速到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>时节/保留</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1014,14 +1010,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到20点伤害。击杀敌人时，伤害加10，再触发一次效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加15，再触发一次效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对所有敌人造成7点伤害。若结语有瞬发效果，则给予所有敌人2层易伤。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1034,10 +1022,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>失去日记所有卡牌，获得个数等同于其费用之和的随机能力。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>续行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1202,10 +1186,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>再现结语。本回合使用映像时，再现结语。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>再现结语。保留。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1486,10 +1466,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时获得4层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>法术链接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1550,18 +1526,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>再现结语。本回合使用映像时，再现结语。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得4层魔力增幅。作为结语时，打出魔法卡牌只减少1层魔力增幅。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6层魔力增幅。作为结语时，打出魔法卡牌只减少1层魔力增幅。速记。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成5点伤害，增加一张呼应到手牌中，使其本回合费用变为0。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1595,6 +1559,78 @@
   </si>
   <si>
     <t>增加1张 *反转 到手牌中。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去日记所有卡牌。每失去1张，获得2个随机能力。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去日记所有卡牌。每失去1张，获得3个随机能力。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时获得5层魔力增幅。失去魔力增幅时，所有敌人失去等量的生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。本回合使用映像时，再现结语，抽1张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现结语。本回合使用映像时，再现结语，抽1张牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到25点伤害。击杀敌人时，伤害加10，再触发一次效果。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合每打出1张魔法卡，耗能-2。生命值最低的敌人受到30点伤害。击杀敌人时，伤害加15，再触发一次效果。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3层魔力增幅。作为结语时，打出魔法卡牌只减少1层魔力增幅。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5层魔力增幅。作为结语时，打出魔法卡牌只减少1层魔力增幅。速记。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退6，增加2张加速+到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。时节回退1，增加1张偏差到抽牌堆。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害。时节回退1，增加1张偏差+到抽牌堆。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deviation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害，时节前进1。 NL 时节变化时，伤害加9。 NL *保留 。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，时节前进1。 NL 时节变化时，伤害加12。 NL *保留 。 NL *消耗 。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2019,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -2040,18 +2076,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2113,7 +2149,7 @@
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>125</v>
@@ -2128,10 +2164,10 @@
         <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>74</v>
@@ -2143,7 +2179,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>112</v>
@@ -2173,7 +2209,7 @@
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>111</v>
@@ -2202,7 +2238,7 @@
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>78</v>
@@ -2217,10 +2253,10 @@
         <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>74</v>
@@ -2231,7 +2267,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>127</v>
@@ -2260,7 +2296,7 @@
     </row>
     <row r="7" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>148</v>
@@ -2275,10 +2311,10 @@
         <v>150</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>67</v>
@@ -2290,7 +2326,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>168</v>
@@ -2308,10 +2344,10 @@
         <v>171</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>137</v>
@@ -2319,10 +2355,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>169</v>
@@ -2334,13 +2370,13 @@
         <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>137</v>
@@ -2349,10 +2385,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>169</v>
@@ -2361,16 +2397,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>137</v>
@@ -2379,10 +2415,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>79</v>
@@ -2394,10 +2430,10 @@
         <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>74</v>
@@ -2408,10 +2444,10 @@
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>79</v>
@@ -2423,10 +2459,10 @@
         <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>166</v>
@@ -2438,10 +2474,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>79</v>
@@ -2453,13 +2489,13 @@
         <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>137</v>
@@ -2467,13 +2503,13 @@
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2482,13 +2518,13 @@
         <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>137</v>
@@ -2496,10 +2532,10 @@
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>79</v>
@@ -2511,10 +2547,10 @@
         <v>71</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>74</v>
@@ -2526,13 +2562,13 @@
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2541,13 +2577,13 @@
         <v>71</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>137</v>
@@ -2555,25 +2591,25 @@
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>146</v>
+        <v>403</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>74</v>
@@ -2584,10 +2620,10 @@
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -2599,10 +2635,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>61</v>
@@ -2614,10 +2650,10 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>79</v>
@@ -2629,13 +2665,13 @@
         <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>137</v>
@@ -2643,10 +2679,10 @@
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>79</v>
@@ -2658,10 +2694,10 @@
         <v>93</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>74</v>
@@ -2672,10 +2708,10 @@
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>79</v>
@@ -2687,10 +2723,10 @@
         <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>166</v>
@@ -2699,288 +2735,265 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>393</v>
-      </c>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="2">
+        <v>135</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>398</v>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>165</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>166</v>
+        <v>369</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>301</v>
+        <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="5">
-        <v>0</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>318</v>
+      <c r="A29" t="s">
+        <v>223</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>166</v>
@@ -2989,59 +3002,59 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
+        <v>304</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>46</v>
+        <v>365</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>137</v>
@@ -3049,25 +3062,25 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>74</v>
@@ -3079,28 +3092,28 @@
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>315</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>137</v>
@@ -3109,220 +3122,208 @@
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="F40" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" s="5" t="s">
         <v>137</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
+      <c r="B41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>137</v>
+        <v>164</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>231</v>
-      </c>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42">
+        <v>84</v>
+      </c>
+      <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>76</v>
+        <v>231</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>73</v>
@@ -3330,17 +3331,17 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>77</v>
+      <c r="E43" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>74</v>
+        <v>116</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>137</v>
@@ -3349,10 +3350,10 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
@@ -3364,130 +3365,130 @@
         <v>41</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>190</v>
+        <v>328</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>137</v>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>137</v>
@@ -3495,10 +3496,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>73</v>
@@ -3507,30 +3508,30 @@
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3539,71 +3540,71 @@
         <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>214</v>
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>45</v>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>45</v>
+      <c r="E52" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>137</v>
@@ -3611,57 +3612,57 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>248</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>31</v>
+      <c r="E53" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>137</v>
@@ -3669,221 +3670,285 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="5">
+        <v>73</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>217</v>
+      </c>
       <c r="B56" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="F58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="I61" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="B62" s="5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="I62" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>31</v>
+      <c r="A63" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>61</v>
+        <v>344</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I65">
-    <sortCondition descending="1" ref="I41:I65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
+    <sortCondition descending="1" ref="C41:C63"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3893,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3910,7 +3975,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>80</v>
@@ -3925,10 +3990,10 @@
         <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>74</v>
@@ -3939,7 +4004,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>75</v>
@@ -3968,10 +4033,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>170</v>
@@ -3983,13 +4048,13 @@
         <v>170</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>137</v>
@@ -3997,10 +4062,10 @@
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>170</v>
@@ -4012,13 +4077,13 @@
         <v>170</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>137</v>
@@ -4026,10 +4091,10 @@
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>170</v>
@@ -4038,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>137</v>
@@ -4078,10 +4143,10 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>71</v>
@@ -4093,10 +4158,10 @@
         <v>71</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>137</v>
@@ -4104,10 +4169,10 @@
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>71</v>
@@ -4119,10 +4184,10 @@
         <v>71</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>137</v>
@@ -4130,10 +4195,10 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>71</v>
@@ -4145,10 +4210,10 @@
         <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>137</v>
@@ -4156,10 +4221,10 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>71</v>
@@ -4171,10 +4236,10 @@
         <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>137</v>
@@ -4182,25 +4247,25 @@
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>167</v>
@@ -4211,10 +4276,10 @@
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>71</v>
@@ -4226,13 +4291,13 @@
         <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>137</v>
@@ -4240,10 +4305,10 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>71</v>
@@ -4255,13 +4320,13 @@
         <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>137</v>
@@ -4269,7 +4334,7 @@
     </row>
     <row r="14" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -4284,15 +4349,44 @@
         <v>71</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>136</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4319,7 +4413,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4529,13 +4623,13 @@
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB22D9-466A-4032-9F12-6F6C6027FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162B060-5D4C-486B-8D26-12ECD5CE9D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2103,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2149,25 +2149,25 @@
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>74</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>79</v>
@@ -2190,47 +2190,47 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
+      <c r="E3" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>94</v>
+        <v>402</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>403</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>137</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>400</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>137</v>
@@ -2238,28 +2238,28 @@
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>137</v>
@@ -2267,28 +2267,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>309</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>326</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>137</v>
@@ -2326,87 +2326,87 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>243</v>
+        <v>363</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>170</v>
+        <v>388</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>181</v>
+        <v>350</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>137</v>
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>137</v>
@@ -2415,28 +2415,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>274</v>
+        <v>413</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>137</v>
@@ -2444,28 +2444,28 @@
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>137</v>
@@ -2474,28 +2474,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>127</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>170</v>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>181</v>
+        <v>119</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>137</v>
@@ -2503,28 +2503,28 @@
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>137</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>79</v>
@@ -2547,13 +2547,13 @@
         <v>71</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>326</v>
+        <v>409</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>137</v>
@@ -2562,28 +2562,28 @@
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>198</v>
+        <v>105</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>137</v>
@@ -2591,28 +2591,28 @@
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>402</v>
+        <v>296</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>137</v>
@@ -2620,28 +2620,28 @@
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2">
+        <v>125</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>31</v>
+      <c r="E18" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>324</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>137</v>
@@ -2650,28 +2650,28 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>355</v>
+        <v>112</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>71</v>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>356</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>357</v>
+        <v>95</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>137</v>
@@ -2679,28 +2679,28 @@
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
+        <v>169</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>361</v>
+        <v>146</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>137</v>
@@ -2736,122 +2736,145 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>168</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F24" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>31</v>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>365</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>137</v>
@@ -2859,202 +2882,202 @@
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>201</v>
+        <v>408</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>408</v>
+        <v>257</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>304</v>
+      <c r="A32" t="s">
+        <v>223</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="5">
-        <v>0</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>365</v>
+        <v>86</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>199</v>
+        <v>386</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>198</v>
+        <v>369</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>137</v>
@@ -3062,28 +3085,28 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>257</v>
+        <v>384</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>137</v>
@@ -3092,25 +3115,25 @@
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>166</v>
@@ -3122,28 +3145,28 @@
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>367</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>46</v>
+      <c r="H36" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>137</v>
@@ -3152,28 +3175,28 @@
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>137</v>
@@ -3182,166 +3205,178 @@
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>366</v>
+        <v>194</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="5">
+        <v>177</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>74</v>
+        <v>157</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>237</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
+      <c r="E43" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>51</v>
+        <v>334</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>137</v>
@@ -3349,40 +3384,40 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>109</v>
+      <c r="A44" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
@@ -3390,75 +3425,75 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>47</v>
+        <v>338</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>225</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>46</v>
+        <v>331</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>137</v>
@@ -3467,13 +3502,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>73</v>
+        <v>226</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3482,42 +3517,42 @@
         <v>71</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>73</v>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>77</v>
+      <c r="E49" t="s">
+        <v>31</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>137</v>
@@ -3554,115 +3589,115 @@
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="5" t="s">
+      <c r="F52" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="I53" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>137</v>
@@ -3670,42 +3705,42 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>73</v>
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>166</v>
+      <c r="E55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>217</v>
+      <c r="A56" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>73</v>
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3713,14 +3748,14 @@
       <c r="E56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>373</v>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>137</v>
@@ -3728,88 +3763,80 @@
     </row>
     <row r="57" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>213</v>
+      <c r="B59" t="s">
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>137</v>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
+      <c r="B60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3817,138 +3844,111 @@
       <c r="E60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>11</v>
+      <c r="F60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>31</v>
+      <c r="E61" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>340</v>
+        <v>163</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="B62" s="5" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62">
+        <v>84</v>
+      </c>
+      <c r="D62" s="5">
         <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="H62" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>77</v>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
-    <sortCondition descending="1" ref="C41:C63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
+    <sortCondition descending="1" ref="I47:I67"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3960,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162B060-5D4C-486B-8D26-12ECD5CE9D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6C461B-90AA-4B50-BCC9-CDCC40A0152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="448">
   <si>
     <t>序号</t>
   </si>
@@ -218,24 +218,13 @@
     <t>安稳结界</t>
   </si>
   <si>
-    <t>相对效应</t>
-  </si>
-  <si>
     <t>成长</t>
   </si>
   <si>
-    <t>时节回退3，本回合每打出一张魔法卡牌，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>时令</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时节回退2，本回合每打出一张魔法卡，时节前进1，抽1张卡牌。消耗。完成一个循环时，失去该效果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>将未被消耗的卡牌添加到日记中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -424,10 +413,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得等同于所有敌人力量之和的临时敏捷。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>若本回合未打出过攻击牌，回合结束时时节向前1。抽到这张牌时，（冬：获得2点敏捷）/（夏：将其消耗）/（春秋：无效果）。时令。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -564,23 +549,187 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力回响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留/沙耶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整步伐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退4，增加2张加速到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进2。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节前进3。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>再现结语。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7格挡。增加1张释放到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女的锅炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术重组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>闪光魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对（秋：所有敌人）（其它：随机敌人）造成5点伤害（秋冬：3次）（春夏：2次）。时令。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对（秋：所有敌人）（其它：随机敌人）造成6点伤害（秋冬：3次）（春夏：2次）时令。</t>
+    <t>魔法/保留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅/魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力扩散</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深层记忆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -588,23 +737,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日记/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力回响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留/沙耶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升华</t>
+    <t>费用变为2。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重分配</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -612,31 +749,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>下回合开始时，变化所有保留的卡牌。每变化一张，获得能量*1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整步伐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
+    <t>挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -644,166 +765,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时节回退4，增加2张加速到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节前进2。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节前进3。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现结语。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取1张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7格挡。增加1张释放到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔女的锅炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机增加2张有保留效果的卡牌到手牌中。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术重组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法/保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得7点格挡。记录本回合已打出的所有卡牌。不可被记录。保留。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅/魔法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力扩散</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深层记忆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为2。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重分配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使所有其他敌人的力量加成转移到目标敌人身上。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用变为0。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>挑衅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>应急处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>抽取2张卡牌。每保留1回合，该数值加1。保留。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1034,14 +999,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标（包括伊蕾娜）造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>你打出的映像会被打出两次。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1258,14 +1215,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得7点格挡，升级结语，增加1张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10点格挡，升级结语，增加2张重现到手牌中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>获得16点格挡，若本回合未打出其它卡牌，回复能量*1。瞬发。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1282,14 +1231,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成18点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成20点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成9点伤害。如果目标有力量增益，则获得能量*1并给予1层虚弱。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1446,10 +1387,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成11点伤害，再现结语，使其本回合费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>法术共振</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1631,6 +1568,182 @@
   </si>
   <si>
     <t>造成12点伤害，时节前进1。 NL 时节变化时，伤害加12。 NL *保留 。 NL *消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录随机3张牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前结语有瞬发效果时可打出。触发结语的瞬发效果。保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成15点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成18点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法/挑衅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成4点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成14点伤害。应用2倍的魔力增幅效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成16点伤害。应用3倍的魔力增幅效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得等同于所有敌人力量之和的临时敏捷和格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预知魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成15点伤害。记录抽牌堆顶的3张牌，每有1张牌不可被记录，回复能量*1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法/日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使所有其他敌人的力量加成转移到目标敌人身上，获得等同于其力量的临时生命。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆裂魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有1种能力就造成4点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有1种能力就造成3点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点格挡。下1张时令卡会以最强效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得12点格挡。下1张时令卡会以最强效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害。本回合魔力增幅不再提供伤害加成，且有魔力增幅时，每打出1张魔法卡，抽1张卡牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。本回合魔力增幅不再提供伤害加成，且有魔力增幅时，每打出1张魔法卡，抽1张卡牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>既视感</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡。记录弃牌堆随机卡牌，增加1张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡。记录弃牌堆随机卡牌，增加2张重现到手牌中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡，升级结语，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点格挡，升级日记所有卡牌，再现结语。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有保留的卡牌。每消耗一张，获得能量*1，抽取并记录弃牌堆顶的一张卡牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机目标造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成18点伤害。记录抽牌堆顶的4张牌，每有1张牌不可被记录，回复能量*1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录随机3张牌，选择其中1张卡牌最后被记录。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quotation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplosiveMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成16点伤害。有魔力增幅时获得能量*1。目标敌人有力量加成时获得能量*1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成20点伤害。有魔力增幅时获得能量*1。目标敌人有力量加成时获得能量*1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvolutionMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnticipatoryMagic</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2002,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2023,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,7 +2144,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,39 +2168,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2101,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2120,13 +2233,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2144,221 +2257,221 @@
         <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -2370,114 +2483,114 @@
         <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -2489,7 +2602,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>57</v>
@@ -2498,77 +2611,77 @@
         <v>51</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2577,86 +2690,86 @@
         <v>31</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2665,143 +2778,143 @@
         <v>41</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -2810,21 +2923,21 @@
         <v>31</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
@@ -2839,230 +2952,230 @@
         <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I31" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="I32" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3071,7 +3184,7 @@
         <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>32</v>
@@ -3080,168 +3193,168 @@
         <v>51</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I36" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I37" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3250,58 +3363,58 @@
         <v>41</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3310,7 +3423,7 @@
         <v>31</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>116</v>
+        <v>415</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>32</v>
@@ -3319,73 +3432,73 @@
         <v>51</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -3400,27 +3513,27 @@
         <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3429,115 +3542,115 @@
         <v>41</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>28</v>
+      <c r="C48" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3546,27 +3659,27 @@
         <v>31</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3575,27 +3688,27 @@
         <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
+      <c r="C51" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3604,7 +3717,7 @@
         <v>41</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>22</v>
@@ -3613,12 +3726,12 @@
         <v>47</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>19</v>
@@ -3633,79 +3746,79 @@
         <v>31</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -3729,15 +3842,15 @@
         <v>45</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -3758,193 +3871,323 @@
         <v>45</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C57" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="F64" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="F65" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
@@ -3958,16 +4201,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="29.88671875" customWidth="1"/>
     <col min="7" max="7" width="30.44140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -3975,152 +4219,152 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -4132,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>40</v>
@@ -4143,251 +4387,343 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4413,13 +4749,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4437,7 +4773,7 @@
         <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4460,7 +4796,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -4477,13 +4813,13 @@
         <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -4500,13 +4836,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -4523,13 +4859,13 @@
         <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +4879,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4568,10 +4904,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>24</v>
@@ -4579,7 +4915,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -4590,46 +4926,46 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6C461B-90AA-4B50-BCC9-CDCC40A0152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EC19C-4AC2-445A-8D58-325521A7AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="450">
   <si>
     <t>序号</t>
   </si>
@@ -1591,14 +1591,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成15点伤害。（冬：给予1层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成18点伤害。（冬：给予2层易伤。）（夏：消耗。）。时令·冬。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法/挑衅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1647,18 +1639,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得8点格挡。下1张时令卡会以最强效果被打出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最佳状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得12点格挡。下1张时令卡会以最强效果被打出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>进阶魔法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1744,6 +1728,30 @@
   </si>
   <si>
     <t>AnticipatoryMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redistribution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成15点伤害。（冬：给予1层易伤。）（春，夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成18点伤害。（冬：给予2层易伤。）（春，夏：消耗。）。时令·冬。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BestState</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10点格挡。下1张时令卡会以最强效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得14点格挡。下1张时令卡会以最强效果被打出。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2104,7 +2112,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2216,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2395,10 +2403,10 @@
         <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>71</v>
@@ -3363,7 +3371,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>357</v>
@@ -3423,7 +3431,7 @@
         <v>31</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>32</v>
@@ -3688,10 +3696,10 @@
         <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>59</v>
@@ -3876,7 +3884,7 @@
     </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>404</v>
@@ -3894,7 +3902,7 @@
         <v>405</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>71</v>
@@ -3905,7 +3913,7 @@
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>406</v>
@@ -3934,10 +3942,10 @@
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>70</v>
@@ -3949,10 +3957,10 @@
         <v>74</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>159</v>
@@ -3963,7 +3971,7 @@
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>408</v>
@@ -3978,13 +3986,13 @@
         <v>74</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>133</v>
@@ -3992,10 +4000,10 @@
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>76</v>
@@ -4007,10 +4015,10 @@
         <v>74</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>159</v>
@@ -4021,10 +4029,10 @@
     </row>
     <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>76</v>
@@ -4036,19 +4044,22 @@
         <v>74</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>195</v>
       </c>
@@ -4062,7 +4073,7 @@
         <v>196</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>142</v>
@@ -4070,10 +4081,16 @@
       <c r="H64" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="B65" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>76</v>
@@ -4085,18 +4102,18 @@
         <v>68</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>76</v>
@@ -4108,18 +4125,18 @@
         <v>74</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>70</v>
@@ -4131,16 +4148,16 @@
         <v>68</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>253</v>
       </c>
@@ -4154,16 +4171,16 @@
         <v>74</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>156</v>
       </c>
@@ -4177,7 +4194,7 @@
         <v>157</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>142</v>
@@ -4186,7 +4203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" s="5"/>
     </row>
   </sheetData>
@@ -4878,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EC19C-4AC2-445A-8D58-325521A7AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE1039A-B4CD-44FE-996A-8E3A2C5FC3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="458">
   <si>
     <t>序号</t>
   </si>
@@ -1647,10 +1647,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成7点伤害。本回合魔力增幅不再提供伤害加成，且有魔力增幅时，每打出1张魔法卡，抽1张卡牌。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成10点伤害。本回合魔力增幅不再提供伤害加成，且有魔力增幅时，每打出1张魔法卡，抽1张卡牌。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1675,18 +1671,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>消耗所有保留的卡牌。每消耗一张，获得能量*1，抽取并记录弃牌堆顶的一张卡牌。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。消耗。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对随机目标造成3点伤害3次。打乱日记的顺序，使日记内的卡牌费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成18点伤害。记录抽牌堆顶的4张牌，每有1张牌不可被记录，回复能量*1。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1752,6 +1736,54 @@
   </si>
   <si>
     <t>获得14点格挡。下1张时令卡会以最强效果被打出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成13点伤害。本回合魔力增幅不再提供伤害加成，且有魔力增幅时，每打出1张魔法卡，抽1张卡牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvancedMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DejaVu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打乱日记的顺序，使日记内的卡牌费用-1。再现结语。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicTurbulence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使日记内的卡牌费用-1，打乱日记的顺序。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sublimation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有保留的手牌。每消耗一张，获得能量*1，抽取弃牌堆顶的一张卡牌。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PureMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成20点伤害。消耗手牌中所有非魔法卡牌，再现等量的卡牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成26点伤害。消耗手牌中所有非魔法卡牌，再现等量的卡牌。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2224,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2403,10 +2435,10 @@
         <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>71</v>
@@ -2916,57 +2948,57 @@
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>61</v>
+        <v>320</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>133</v>
@@ -2974,144 +3006,144 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>293</v>
+        <v>431</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>286</v>
+        <v>404</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>438</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>56</v>
+        <v>419</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>116</v>
+        <v>429</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>233</v>
+        <v>443</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>254</v>
+        <v>421</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>133</v>
@@ -3119,57 +3151,57 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>303</v>
+        <v>447</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>247</v>
+        <v>422</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>249</v>
+        <v>423</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>248</v>
+        <v>446</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>214</v>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>133</v>
@@ -3177,28 +3209,28 @@
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>371</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33">
+        <v>81</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>32</v>
+        <v>375</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>133</v>
@@ -3206,28 +3238,28 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>74</v>
+        <v>305</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>133</v>
@@ -3236,28 +3268,28 @@
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>133</v>
@@ -3266,58 +3298,58 @@
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>351</v>
+        <v>367</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="5">
-        <v>1</v>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>71</v>
+        <v>366</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>133</v>
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>374</v>
+        <v>116</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>133</v>
@@ -3326,28 +3358,28 @@
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>133</v>
@@ -3355,59 +3387,59 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>208</v>
+      <c r="A39" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>46</v>
+        <v>392</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>133</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>133</v>
@@ -3415,59 +3447,59 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>53</v>
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
+      <c r="E41" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>133</v>
@@ -3476,28 +3508,28 @@
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43">
+        <v>81</v>
+      </c>
+      <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>133</v>
@@ -3506,71 +3538,71 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44">
+        <v>364</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="5">
         <v>2</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>31</v>
+      <c r="E44" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>46</v>
+        <v>388</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>210</v>
+      <c r="A45" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3579,39 +3611,39 @@
         <v>68</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>216</v>
+        <v>450</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47">
+        <v>81</v>
+      </c>
+      <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>71</v>
@@ -3621,70 +3653,70 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>452</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>138</v>
+        <v>453</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>46</v>
+        <v>453</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>31</v>
+      <c r="E49" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>142</v>
+        <v>380</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>70</v>
@@ -3696,42 +3728,42 @@
         <v>41</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>21</v>
+      <c r="A51" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>41</v>
+      <c r="E51" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>47</v>
+        <v>321</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>133</v>
@@ -3739,13 +3771,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3754,71 +3786,71 @@
         <v>31</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>71</v>
+        <v>413</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>74</v>
+        <v>215</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>133</v>
@@ -3826,28 +3858,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
+        <v>277</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>45</v>
+      <c r="E55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>133</v>
@@ -3855,115 +3887,144 @@
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>45</v>
+      <c r="E56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>133</v>
       </c>
     </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>404</v>
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>405</v>
+        <v>114</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>434</v>
+        <v>142</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>436</v>
+      <c r="A59" t="s">
+        <v>211</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>68</v>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>152</v>
+        <v>442</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>418</v>
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="5">
-        <v>2</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>74</v>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>133</v>
@@ -3971,28 +4032,28 @@
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D61" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>133</v>
@@ -4000,25 +4061,25 @@
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D62" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>159</v>
@@ -4029,13 +4090,13 @@
     </row>
     <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63" s="5">
         <v>2</v>
@@ -4044,13 +4105,13 @@
         <v>74</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>133</v>
@@ -4058,28 +4119,28 @@
     </row>
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>133</v>
@@ -4087,36 +4148,42 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>76</v>
+        <v>207</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="B66" s="5" t="s">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4125,90 +4192,111 @@
         <v>74</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>424</v>
+        <v>150</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="B67" s="5" t="s">
-        <v>425</v>
+        <v>327</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67">
+        <v>96</v>
+      </c>
+      <c r="D67" s="5">
         <v>1</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="B69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>151</v>
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>160</v>
+      <c r="E69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
-    <sortCondition descending="1" ref="I47:I67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I71">
+    <sortCondition descending="1" ref="C1:C71"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4220,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4895,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE1039A-B4CD-44FE-996A-8E3A2C5FC3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50995B7A-1BE0-48D3-9436-BE03F9317C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="470">
   <si>
     <t>序号</t>
   </si>
@@ -1139,10 +1139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得2层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>再现结语。保留。消耗。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1595,10 +1591,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>造成4点伤害，再现结语，使其本回合费用-1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>造成14点伤害。应用2倍的魔力增幅效果。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1784,6 +1776,62 @@
   </si>
   <si>
     <t>造成26点伤害。消耗手牌中所有非魔法卡牌，再现等量的卡牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>起手式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害。 NL 获得10层魔力增幅。 NL 获得等同于手牌中魔法卡数量的能量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成13点伤害。 NL 获得13层魔力增幅。 NL 获得等同于手牌中魔法卡数量的能量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtectiveMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，获得5点格挡。本回合每打出1张魔法卡，获得5点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，再现结语，使其本回合费用-1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害。再现魔法卡牌至手牌上限。本回合每打出一张魔法卡牌获得5层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，获得6点格挡。本回合每打出6张魔法卡，获得6点格挡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronWaveMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁斩波魔法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。造成5点伤害，获得5点格挡。 NL 保留时，数值增加2点。（时节 每循环一次，该数值加1。）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。造成5点伤害，获得5点格挡。 NL 保留时，数值增加3点。（时节每循环一次，该数值加1。）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2254,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2302,10 +2350,10 @@
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>76</v>
@@ -2317,10 +2365,10 @@
         <v>90</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>71</v>
@@ -2332,7 +2380,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>262</v>
@@ -2347,10 +2395,10 @@
         <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>71</v>
@@ -2377,10 +2425,10 @@
         <v>68</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>159</v>
@@ -2391,7 +2439,7 @@
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>258</v>
@@ -2406,10 +2454,10 @@
         <v>68</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>191</v>
@@ -2420,10 +2468,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>76</v>
@@ -2435,10 +2483,10 @@
         <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>71</v>
@@ -2464,10 +2512,10 @@
         <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>65</v>
@@ -2497,7 +2545,7 @@
         <v>176</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>174</v>
@@ -2508,10 +2556,10 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -2523,10 +2571,10 @@
         <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>61</v>
@@ -2538,10 +2586,10 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>76</v>
@@ -2553,13 +2601,13 @@
         <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>133</v>
@@ -2568,10 +2616,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>76</v>
@@ -2583,10 +2631,10 @@
         <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>165</v>
@@ -2612,10 +2660,10 @@
         <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>71</v>
@@ -2656,7 +2704,7 @@
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>177</v>
@@ -2685,7 +2733,7 @@
     </row>
     <row r="15" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>251</v>
@@ -2700,10 +2748,10 @@
         <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>159</v>
@@ -2762,7 +2810,7 @@
         <v>285</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>191</v>
@@ -2791,7 +2839,7 @@
         <v>284</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>71</v>
@@ -2847,7 +2895,7 @@
         <v>180</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>142</v>
@@ -2861,10 +2909,10 @@
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>76</v>
@@ -2876,10 +2924,10 @@
         <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>159</v>
@@ -2908,7 +2956,7 @@
         <v>164</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>165</v>
@@ -2934,10 +2982,10 @@
         <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>71</v>
@@ -2963,10 +3011,10 @@
         <v>147</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>186</v>
@@ -3006,10 +3054,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>76</v>
@@ -3021,10 +3069,10 @@
         <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>71</v>
@@ -3035,10 +3083,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>76</v>
@@ -3050,10 +3098,10 @@
         <v>74</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>159</v>
@@ -3064,10 +3112,10 @@
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>76</v>
@@ -3079,13 +3127,13 @@
         <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>133</v>
@@ -3093,7 +3141,7 @@
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>195</v>
@@ -3108,7 +3156,7 @@
         <v>196</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>142</v>
@@ -3122,10 +3170,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>76</v>
@@ -3137,10 +3185,10 @@
         <v>68</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>65</v>
@@ -3151,10 +3199,10 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>76</v>
@@ -3166,10 +3214,10 @@
         <v>74</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>159</v>
@@ -3180,10 +3228,10 @@
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>76</v>
@@ -3195,10 +3243,10 @@
         <v>74</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>159</v>
@@ -3209,28 +3257,28 @@
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>61</v>
+        <v>459</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>133</v>
@@ -3238,28 +3286,28 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>466</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
+      <c r="E34" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>46</v>
+        <v>469</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>133</v>
@@ -3268,28 +3316,28 @@
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>68</v>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>160</v>
+        <v>375</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>133</v>
@@ -3298,28 +3346,28 @@
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>133</v>
@@ -3328,28 +3376,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>133</v>
@@ -3358,28 +3406,28 @@
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>153</v>
+        <v>366</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>155</v>
+        <v>365</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>133</v>
@@ -3388,88 +3436,88 @@
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F41" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H39" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>133</v>
@@ -3478,58 +3526,58 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>302</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
+      <c r="E42" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>51</v>
+        <v>249</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>133</v>
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>306</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>214</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>133</v>
@@ -3538,28 +3586,28 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="5">
-        <v>2</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>90</v>
+        <v>151</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>159</v>
+        <v>353</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>133</v>
@@ -3567,10 +3615,10 @@
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>81</v>
@@ -3579,16 +3627,16 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>133</v>
@@ -3596,28 +3644,28 @@
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="D46" s="5">
+        <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>133</v>
@@ -3625,10 +3673,10 @@
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>81</v>
@@ -3640,10 +3688,10 @@
         <v>68</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>449</v>
+        <v>142</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>71</v>
@@ -3655,86 +3703,86 @@
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D48">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="F50" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>133</v>
@@ -3742,39 +3790,39 @@
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>53</v>
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>70</v>
@@ -3783,74 +3831,74 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>32</v>
+        <v>356</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>315</v>
+        <v>411</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>133</v>
@@ -3858,10 +3906,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>70</v>
@@ -3873,13 +3921,13 @@
         <v>68</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>133</v>
@@ -3887,28 +3935,28 @@
     </row>
     <row r="56" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>70</v>
+        <v>215</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>71</v>
+        <v>314</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>133</v>
@@ -3916,10 +3964,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>20</v>
+        <v>277</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>70</v>
@@ -3931,24 +3979,24 @@
         <v>68</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>46</v>
+        <v>323</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
+      <c r="A58" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>70</v>
@@ -3956,28 +4004,28 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>31</v>
+      <c r="E58" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>114</v>
+        <v>316</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>110</v>
+      <c r="A59" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>70</v>
@@ -3985,17 +4033,17 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>41</v>
+      <c r="E59" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>442</v>
+        <v>137</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>133</v>
@@ -4003,10 +4051,10 @@
     </row>
     <row r="60" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>209</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>213</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>70</v>
@@ -4014,75 +4062,75 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>41</v>
+      <c r="E60" t="s">
+        <v>31</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>432</v>
+      <c r="A61" t="s">
+        <v>211</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>68</v>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>152</v>
+        <v>440</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>418</v>
+      <c r="A62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="5">
-        <v>2</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>74</v>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>133</v>
@@ -4090,86 +4138,86 @@
     </row>
     <row r="63" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D64">
-        <v>1</v>
+      <c r="D64" s="5">
+        <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>434</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>326</v>
+        <v>433</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>133</v>
@@ -4177,57 +4225,57 @@
     </row>
     <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>149</v>
+        <v>423</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>150</v>
+        <v>424</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>327</v>
+        <v>461</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="5">
+        <v>70</v>
+      </c>
+      <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>328</v>
+        <v>462</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>329</v>
+        <v>465</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>133</v>
@@ -4235,13 +4283,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
+        <v>207</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4249,54 +4297,138 @@
       <c r="E68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="I71" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I71" s="5"/>
+      <c r="I72" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I71">
-    <sortCondition descending="1" ref="C1:C71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I72">
+    <sortCondition descending="1" ref="C46:C72"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4455,10 +4587,10 @@
         <v>181</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>182</v>
@@ -4640,7 +4772,7 @@
         <v>163</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>171</v>
@@ -4654,10 +4786,10 @@
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>68</v>
@@ -4669,13 +4801,13 @@
         <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>116</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>133</v>
@@ -4698,10 +4830,10 @@
         <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>132</v>
@@ -4712,10 +4844,10 @@
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>68</v>
@@ -4727,10 +4859,10 @@
         <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>165</v>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208750BD-1750-4341-B03D-BD45676F22F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA025D9-E7E5-4732-842B-D90C573D0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="472">
   <si>
     <t>序号</t>
   </si>
@@ -140,9 +140,6 @@
     <t>猫形态</t>
   </si>
   <si>
-    <t>回合开始时，瞬发会发动两次。</t>
-  </si>
-  <si>
     <t>造成3点伤害，获得1点格挡。每当发动再现时，若该卡牌在日记中，则将其再现。速记。</t>
   </si>
   <si>
@@ -444,22 +441,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无民国壁炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>所有时令牌只会以最佳效果被打出。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钟摆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时节不再回退。点击后时节前进2。（剩余次数3）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>调整失败</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -949,14 +934,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>少女魔杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当敌人获得1点力量，获得1层魔力增幅。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>你打出的映像会被打出两次。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1830,6 +1807,46 @@
   </si>
   <si>
     <t>RecreateMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊鸿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被打出和 elainamod:记录 。 NL 抽到这张牌时，再抽1张牌， elainamod:记录 所有的手牌，然后 消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被打出和 elainamod:记录 。 NL 抽到这张牌时，再抽1张牌， elainamod:记录 所有的手牌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻便魔杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无民国火炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，额外触发一次瞬发效果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟乡刻印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次时节回退后，时节前进1。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2218,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2222,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,39 +2271,39 @@
         <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2319,13 +2336,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2340,85 +2357,85 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -2430,126 +2447,126 @@
         <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -2558,2037 +2575,2037 @@
         <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>356</v>
+        <v>261</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>446</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>281</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>45</v>
+        <v>368</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>343</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>132</v>
+        <v>447</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="I34" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>192</v>
+        <v>77</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>193</v>
+        <v>355</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="5">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>71</v>
+        <v>286</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>413</v>
+        <v>276</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>391</v>
+        <v>132</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>449</v>
+        <v>268</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>50</v>
+        <v>328</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>403</v>
+        <v>346</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>68</v>
+        <v>345</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="B41" s="5" t="s">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="B43" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D44" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>330</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>213</v>
+        <v>422</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>51</v>
+        <v>423</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>220</v>
+        <v>429</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>217</v>
+        <v>458</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>387</v>
+        <v>464</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>454</v>
+        <v>206</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>453</v>
+        <v>65</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>399</v>
+        <v>297</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B53" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="F55" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="I55" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>68</v>
+        <v>388</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>227</v>
+        <v>461</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>174</v>
+      <c r="E60" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>175</v>
+        <v>434</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>67</v>
+        <v>200</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>440</v>
+        <v>296</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>259</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>45</v>
+        <v>303</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="I63" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>136</v>
+        <v>387</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="5">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>439</v>
+        <v>133</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="I70" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>44</v>
+        <v>334</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4597,27 +4614,59 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>129</v>
+      <c r="H73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J73">
-    <sortCondition descending="1" ref="J40:J73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
+    <sortCondition descending="1" ref="C66:C74"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4629,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4645,379 +4694,379 @@
   <sheetData>
     <row r="1" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -5026,108 +5075,108 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -5145,35 +5194,35 @@
         <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
@@ -5185,13 +5234,13 @@
         <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5220,13 +5269,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5241,10 +5290,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -5258,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>26</v>
@@ -5267,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
@@ -5281,16 +5330,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
@@ -5304,16 +5353,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
@@ -5327,16 +5376,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5347,10 +5396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5360,7 +5409,7 @@
     <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5368,76 +5417,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>248</v>
+        <v>469</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA025D9-E7E5-4732-842B-D90C573D0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08F820-A9E6-40EE-9288-9E9158DAD235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="474">
   <si>
     <t>序号</t>
   </si>
@@ -1846,7 +1846,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每次时节回退后，时节前进1。</t>
+    <t>协会徽章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，均分所有单位的 力量 增益。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退时，时节前进1。 NL 时节前进时，获得 [E] 。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5396,10 +5404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5504,7 +5512,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>470</v>
       </c>
@@ -5512,12 +5520,29 @@
         <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08F820-A9E6-40EE-9288-9E9158DAD235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874D2AD-32DE-4A66-9FD9-EE127B3F1115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="475">
   <si>
     <t>序号</t>
   </si>
@@ -1855,6 +1855,10 @@
   </si>
   <si>
     <t>时节回退时，时节前进1。 NL 时节前进时，获得 [E] 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出技能牌时获得2层魔力增幅。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5404,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5517,7 +5521,7 @@
         <v>470</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>473</v>
@@ -5534,7 +5538,7 @@
         <v>471</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>472</v>
@@ -5543,6 +5547,23 @@
         <v>125</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874D2AD-32DE-4A66-9FD9-EE127B3F1115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D1786-22CB-4331-900E-077C312CADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1824" yWindow="276" windowWidth="20916" windowHeight="11928" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="485">
   <si>
     <t>序号</t>
   </si>
@@ -1834,10 +1834,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无民国火炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>回合开始时，额外触发一次瞬发效果。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1854,11 +1850,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>时节回退时，时节前进1。 NL 时节前进时，获得 [E] 。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>打出技能牌时获得2层魔力增幅。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻字残垣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出消耗牌时获得1点能量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取时替换初始遗物。战斗开始时使手牌获得瞬发，并将其记录。进入战斗房间时时节前进2。每过1个循环最大生命值+3。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍藏葡萄酒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去结语时，对所有敌人造成日记剩余卡牌数的伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无民国炉火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两个回合开始时，使所有手牌获得保留。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时节回退时，时节前进1。 NL 时节前进时，获得1点能量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋生魔药</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得能力时，抽牌至手牌数等同于能力的个数（不超过手牌上限）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪念人偶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5408,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5493,7 +5533,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>125</v>
@@ -5504,7 +5544,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>72</v>
@@ -5518,13 +5558,13 @@
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>125</v>
@@ -5535,13 +5575,13 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>125</v>
@@ -5558,12 +5598,73 @@
         <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D1786-22CB-4331-900E-077C312CADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7841CAF0-0C26-4DA2-A67F-ECCBD0662465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="276" windowWidth="20916" windowHeight="11928" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="关键字" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="485">
   <si>
     <t>序号</t>
   </si>
@@ -5450,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5653,6 +5653,9 @@
       <c r="D15" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7841CAF0-0C26-4DA2-A67F-ECCBD0662465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60537CA3-5238-4660-8CF1-84DAFD74E539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="483">
   <si>
     <t>序号</t>
   </si>
@@ -95,9 +95,6 @@
     <t>魔女长袍</t>
   </si>
   <si>
-    <t>战斗开始时，根据上一层的事件，在日记记录不同的卡牌（详细：若为战斗，卡牌效果：获得两点临时力量。瞬发。若为火堆，卡牌效果：获得能量*1。瞬发。若为问号，卡牌效果：获得两点临时敏捷。瞬发。以上卡牌均为0费。）</t>
-  </si>
-  <si>
     <t>本我形态</t>
   </si>
   <si>
@@ -337,10 +334,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>返还每回合第一张打出的魔法卡牌的费用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>打出后立即记录到日记中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1830,10 +1823,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>回合开始时，额外触发一次瞬发效果。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1862,10 +1851,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拾取时替换初始遗物。战斗开始时使手牌获得瞬发，并将其记录。进入战斗房间时时节前进2。每过1个循环最大生命值+3。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>珍藏葡萄酒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1899,6 +1884,14 @@
   </si>
   <si>
     <t>贪念人偶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换 #p魔女之旅 。每场战斗开始时，给予所有手牌瞬发效果，并将其记录。 NL 进入战斗房间时时节前进2，完成循环时，获得5点最大体力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每场战斗开始时，根据时节记录任意一张牌，回合结束时，记录本回合打出的最后一张牌。 NL 进入新房间时时节前进1，完成循环时，获得50金币。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2270,7 +2263,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2291,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,47 +2308,47 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2388,13 +2381,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2409,2188 +2402,2188 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="I26" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="I30" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I38" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="I41" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="G45" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="H51" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="I54" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="F55" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="I55" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I58" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="F63" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I63" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>18</v>
@@ -4602,59 +4595,59 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="H71" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="I71" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4666,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>9</v>
@@ -4675,21 +4668,21 @@
         <v>10</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4698,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>6</v>
@@ -4707,13 +4700,13 @@
         <v>7</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4746,553 +4739,553 @@
   <sheetData>
     <row r="1" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5321,13 +5314,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5342,102 +5335,102 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5448,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5469,209 +5462,191 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>474</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>472</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>468</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>478</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>479</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition descending="1" ref="C1:C13"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60537CA3-5238-4660-8CF1-84DAFD74E539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA1CF8-12A8-4F39-9059-0C8AFBCB7665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1879,10 +1879,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>获得能力时，抽牌至手牌数等同于能力的个数（不超过手牌上限）。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>贪念人偶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1892,6 +1888,10 @@
   </si>
   <si>
     <t>每场战斗开始时，根据时节记录任意一张牌，回合结束时，记录本回合打出的最后一张牌。 NL 进入新房间时时节前进1，完成循环时，获得50金币。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得新能力时，抽牌至手牌数等同于能力的个数（不超过手牌上限）。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5444,7 +5444,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5475,65 +5475,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>482</v>
-      </c>
       <c r="E5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>466</v>
       </c>
@@ -5551,6 +5569,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>467</v>
       </c>
@@ -5568,6 +5589,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>478</v>
       </c>
@@ -5575,21 +5599,24 @@
         <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>123</v>
@@ -5598,54 +5625,60 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>475</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-    <sortCondition descending="1" ref="C1:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
+    <sortCondition ref="A1:A12"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8526C016-A2EC-4017-B385-3A27F39270DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8809CE5-8F55-4907-B164-FBBA58E27F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="490">
   <si>
     <t>序号</t>
   </si>
@@ -1891,6 +1891,38 @@
   </si>
   <si>
     <t>速记。获得8点格挡。作为结语时，记录卡牌改为随机造成8点伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对策</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countermeasure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予3层魔力残余，使1张手牌获得保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予3层魔力残余，使2张手牌获得保留。消耗。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicAttachment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力附着</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出或被 消耗 时，给予 5 层魔力残余。 NL 保留 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出或被 消耗 时，给予 7 层魔力残余。 NL 保留 。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2363,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3400,62 +3432,59 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>119</v>
+        <v>482</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>340</v>
+        <v>484</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>53</v>
+        <v>485</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
+        <v>338</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>118</v>
@@ -3466,28 +3495,28 @@
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>60</v>
+        <v>278</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>118</v>
@@ -3498,152 +3527,152 @@
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>267</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
+      <c r="D36" s="5">
+        <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>468</v>
+        <v>317</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>49</v>
+        <v>318</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>224</v>
+        <v>334</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>63</v>
+        <v>333</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>192</v>
+      <c r="A38" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>269</v>
+        <v>337</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>66</v>
+        <v>134</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>142</v>
+        <v>464</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>118</v>
@@ -3654,25 +3683,25 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>142</v>
@@ -3686,28 +3715,28 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>118</v>
@@ -3718,25 +3747,25 @@
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>480</v>
+        <v>321</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>63</v>
@@ -3750,72 +3779,72 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="I45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>73</v>
@@ -3824,16 +3853,16 @@
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>469</v>
+        <v>236</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>118</v>
@@ -3842,27 +3871,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>142</v>
@@ -3874,62 +3903,62 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>439</v>
+        <v>231</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>118</v>
@@ -3940,10 +3969,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>62</v>
@@ -3952,59 +3981,59 @@
         <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>385</v>
+        <v>125</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>199</v>
+        <v>386</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>234</v>
+        <v>385</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J51" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>18</v>
+        <v>199</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>62</v>
@@ -4016,109 +4045,109 @@
         <v>60</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="I53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="I54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D55">
-        <v>1</v>
+      <c r="D55" s="5">
+        <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>45</v>
+        <v>389</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>118</v>
@@ -4129,10 +4158,10 @@
     </row>
     <row r="56" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>62</v>
@@ -4141,16 +4170,16 @@
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>164</v>
+        <v>372</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>118</v>
@@ -4159,30 +4188,30 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>473</v>
+        <v>169</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>40</v>
+        <v>345</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>118</v>
@@ -4193,28 +4222,28 @@
     </row>
     <row r="58" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>142</v>
+        <v>288</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>118</v>
@@ -4225,10 +4254,10 @@
     </row>
     <row r="59" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>62</v>
@@ -4237,16 +4266,16 @@
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>118</v>
@@ -4257,10 +4286,10 @@
     </row>
     <row r="60" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>436</v>
+        <v>194</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>62</v>
@@ -4268,17 +4297,17 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>35</v>
+      <c r="E60" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>51</v>
+        <v>291</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>118</v>
@@ -4287,12 +4316,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>472</v>
+        <v>99</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>62</v>
@@ -4304,13 +4333,13 @@
         <v>35</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>19</v>
+        <v>393</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>118</v>
@@ -4321,87 +4350,87 @@
     </row>
     <row r="62" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>60</v>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>135</v>
+        <v>110</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J63" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D64">
-        <v>1</v>
+      <c r="D64" s="5">
+        <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>479</v>
+        <v>370</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>478</v>
+        <v>371</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>142</v>
@@ -4415,10 +4444,10 @@
     </row>
     <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>62</v>
@@ -4430,13 +4459,13 @@
         <v>66</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>132</v>
+        <v>479</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>118</v>
@@ -4445,12 +4474,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>17</v>
+        <v>196</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>62</v>
@@ -4458,17 +4487,17 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>26</v>
+      <c r="E66" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>118</v>
@@ -4479,25 +4508,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>271</v>
+        <v>188</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>471</v>
+        <v>295</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>63</v>
@@ -4511,10 +4540,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>86</v>
@@ -4523,16 +4552,16 @@
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>118</v>
@@ -4543,28 +4572,28 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>39</v>
+        <v>323</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>118</v>
@@ -4575,10 +4604,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -4587,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>39</v>
@@ -4605,11 +4634,64 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J72">
-    <sortCondition descending="1" ref="C16:C72"/>
+    <sortCondition descending="1" ref="C61:C72"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5247,7 +5329,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>437</v>
       </c>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8809CE5-8F55-4907-B164-FBBA58E27F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF5EC26-22D8-45B6-A357-340E50399833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="494">
   <si>
     <t>序号</t>
   </si>
@@ -1923,6 +1923,22 @@
   </si>
   <si>
     <t>打出或被 消耗 时，给予 7 层魔力残余。 NL 保留 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicTrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法交易</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃所有保留卡，抽取等量的卡，并给予这些卡 保留 效果。 NL 消耗 。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃所有保留卡，抽取等量的卡，并给予这些卡 保留 效果。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2393,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4687,6 +4703,29 @@
       </c>
       <c r="G72" s="4" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/Elaina.xlsx
+++ b/Elaina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\Stsmod\Elaina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF5EC26-22D8-45B6-A357-340E50399833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A5D8D-3F9D-485B-9298-EB44D0683ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2411,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3354,12 +3354,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>136</v>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>68</v>
@@ -3367,29 +3367,31 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>137</v>
+      <c r="E30" t="s">
+        <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>462</v>
+        <v>125</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
+      <c r="A31" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>68</v>
@@ -3397,17 +3399,17 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>26</v>
+      <c r="E31" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>125</v>
+        <v>382</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>118</v>
@@ -3416,44 +3418,41 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>400</v>
+        <v>483</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>381</v>
+        <v>484</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>68</v>
@@ -3465,74 +3464,66 @@
         <v>60</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>26</v>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>53</v>
+        <v>462</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
+        <v>338</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>118</v>
@@ -3543,184 +3534,184 @@
     </row>
     <row r="36" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
+      <c r="D37" s="5">
+        <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>468</v>
+        <v>317</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>49</v>
+        <v>318</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>224</v>
+        <v>334</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>63</v>
+        <v>333</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>192</v>
+      <c r="A39" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>269</v>
+        <v>337</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>66</v>
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>142</v>
+        <v>464</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>118</v>
@@ -3731,25 +3722,25 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>142</v>
@@ -3763,28 +3754,28 @@
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>118</v>
@@ -3795,25 +3786,25 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>480</v>
+        <v>321</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>63</v>
@@ -3827,72 +3818,72 @@
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="I46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>73</v>
@@ -3901,16 +3892,16 @@
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>469</v>
+        <v>236</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>118</v>
@@ -3919,27 +3910,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>142</v>
@@ -3951,62 +3942,62 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>439</v>
+        <v>231</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>118</v>
@@ -4017,10 +4008,10 @@
     </row>
     <row r="51" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>62</v>
@@ -4029,59 +4020,59 @@
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>385</v>
+        <v>125</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I51" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>199</v>
+        <v>386</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>234</v>
+        <v>385</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>199</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>62</v>
@@ -4093,77 +4084,77 @@
         <v>60</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="I54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>118</v>
@@ -4174,28 +4165,28 @@
     </row>
     <row r="56" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>200</v>
+        <v>391</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D56">
-        <v>1</v>
+      <c r="D56" s="5">
+        <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>45</v>
+        <v>389</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>118</v>
@@ -4206,10 +4197,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>62</v>
@@ -4218,16 +4209,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>164</v>
+        <v>372</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>118</v>
@@ -4238,28 +4229,28 @@
     </row>
     <row r="58" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>473</v>
+        <v>169</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>40</v>
+        <v>345</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>118</v>
@@ -4270,28 +4261,28 @@
     </row>
     <row r="59" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>142</v>
+        <v>288</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>118</v>
@@ -4302,10 +4293,10 @@
     </row>
     <row r="60" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>62</v>
@@ -4314,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>118</v>
@@ -4332,12 +4323,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>436</v>
+        <v>194</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>62</v>
@@ -4345,17 +4336,17 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>35</v>
+      <c r="E61" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>51</v>
+        <v>291</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>118</v>
@@ -4366,10 +4357,10 @@
     </row>
     <row r="62" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>472</v>
+        <v>99</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>62</v>
@@ -4381,13 +4372,13 @@
         <v>35</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>19</v>
+        <v>393</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>118</v>
@@ -4398,87 +4389,87 @@
     </row>
     <row r="63" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>60</v>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>135</v>
+        <v>110</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D65">
-        <v>1</v>
+      <c r="D65" s="5">
+        <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>479</v>
+        <v>370</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>478</v>
+        <v>371</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>142</v>
@@ -4492,10 +4483,10 @@
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>62</v>
@@ -4507,13 +4498,13 @@
         <v>66</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>132</v>
+        <v>479</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>118</v>
@@ -4522,12 +4513,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>17</v>
+        <v>196</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>62</v>
@@ -4535,17 +4526,17 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>26</v>
+      <c r="E67" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>118</v>
@@ -4556,25 +4547,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>271</v>
+        <v>188</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>471</v>
+        <v>295</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>63</v>
@@ -4588,60 +4579,51 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>323</v>
+        <v>486</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>296</v>
+        <v>487</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>118</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>39</v>
+        <v>272</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>118</v>
@@ -4652,28 +4634,28 @@
     </row>
     <row r="71" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>39</v>
+        <v>296</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>118</v>
@@ -4684,53 +4666,71 @@
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>62</v>
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>490</v>
+        <v>186</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>68</v>
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>493</v>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J72">
-    <sortCondition descending="1" ref="C61:C72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
+    <sortCondition descending="1" ref="C13:C74"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4742,7 +4742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609BC304-D120-471E-B9BE-CDFF93B987A5}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
